--- a/Bus_route/res/2번노선(최종).xlsx
+++ b/Bus_route/res/2번노선(최종).xlsx
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="108">
   <si>
     <t>NAME</t>
   </si>
@@ -60,13 +60,25 @@
     <t>정화양로원</t>
   </si>
   <si>
+    <t>하단역</t>
+  </si>
+  <si>
     <t>금곡주차장</t>
   </si>
   <si>
     <t>금곡주공1단지</t>
   </si>
   <si>
-    <t>금곡역</t>
+    <t>하단교차로</t>
+  </si>
+  <si>
+    <t>학장교</t>
+  </si>
+  <si>
+    <t>청우파크</t>
+  </si>
+  <si>
+    <t>덕천역</t>
   </si>
   <si>
     <t>북부산세무서.감전역</t>
@@ -75,13 +87,19 @@
     <t>사하구청.당리역</t>
   </si>
   <si>
-    <t>하단교차로</t>
-  </si>
-  <si>
-    <t>하단역</t>
-  </si>
-  <si>
-    <t>청우파크</t>
+    <t>다대자유아파트</t>
+  </si>
+  <si>
+    <t>괴정자유아파트</t>
+  </si>
+  <si>
+    <t>금곡동행정복지센터</t>
+  </si>
+  <si>
+    <t>엄궁초등학교</t>
+  </si>
+  <si>
+    <t>낙동초등학교</t>
   </si>
   <si>
     <t>부산구치소</t>
@@ -90,85 +108,121 @@
     <t>동아대입구</t>
   </si>
   <si>
-    <t>동매역</t>
-  </si>
-  <si>
     <t>금곡동주민센터</t>
   </si>
   <si>
-    <t>금곡동행정복지센터</t>
+    <t>만덕1동행정복지센터</t>
   </si>
   <si>
     <t>만덕2동주민센터</t>
   </si>
   <si>
-    <t>만덕1동행정복지센터</t>
+    <t>금곡중학교</t>
   </si>
   <si>
     <t>사상우체국</t>
   </si>
   <si>
-    <t>금곡중학교</t>
-  </si>
-  <si>
-    <t>모라1동행정복지센터</t>
-  </si>
-  <si>
-    <t>괴정자유아파트</t>
-  </si>
-  <si>
-    <t>숙등역.부민병원</t>
+    <t>구평화신아파트</t>
+  </si>
+  <si>
+    <t>다대포항역</t>
+  </si>
+  <si>
+    <t>동산삼거리</t>
+  </si>
+  <si>
+    <t>만덕시장입구</t>
   </si>
   <si>
     <t>화명중학교</t>
   </si>
   <si>
-    <t>만덕시장입구</t>
-  </si>
-  <si>
-    <t>북구청</t>
-  </si>
-  <si>
-    <t>엄궁초등학교</t>
-  </si>
-  <si>
-    <t>청소년지원센터.모덕역</t>
+    <t>덕천교차로</t>
+  </si>
+  <si>
+    <t>모라새마을금고</t>
   </si>
   <si>
     <t>동원아파트</t>
   </si>
   <si>
+    <t>주례사거리</t>
+  </si>
+  <si>
+    <t>다대포항역.다대수협</t>
+  </si>
+  <si>
+    <t>다대농협</t>
+  </si>
+  <si>
+    <t>뉴코아아울렛</t>
+  </si>
+  <si>
+    <t>신장림역</t>
+  </si>
+  <si>
+    <t>괴정사거리</t>
+  </si>
+  <si>
+    <t>구평초등학교</t>
+  </si>
+  <si>
     <t>YK스틸</t>
   </si>
   <si>
-    <t>장림1동행정복지센터</t>
-  </si>
-  <si>
-    <t>모라주공3.4단지</t>
+    <t>대림아파트</t>
+  </si>
+  <si>
+    <t>금곡종합사회복지관</t>
+  </si>
+  <si>
+    <t>반도보라아파트</t>
+  </si>
+  <si>
+    <t>영남중학교</t>
+  </si>
+  <si>
+    <t>덕포시장</t>
   </si>
   <si>
     <t>엄궁동부산은행</t>
   </si>
   <si>
-    <t>덕포시장</t>
-  </si>
-  <si>
-    <t>구평화신아파트</t>
-  </si>
-  <si>
-    <t>금곡종합사회복지관</t>
+    <t>낫개역</t>
+  </si>
+  <si>
+    <t>백양고입구</t>
+  </si>
+  <si>
+    <t>남산정역</t>
+  </si>
+  <si>
+    <t>학장중학교</t>
+  </si>
+  <si>
+    <t>다대회센터</t>
+  </si>
+  <si>
+    <t>구평고개</t>
   </si>
   <si>
     <t>덕포역.덕포2동행정복지센터</t>
   </si>
   <si>
-    <t>신모라입구</t>
-  </si>
-  <si>
-    <t>당리중학교</t>
-  </si>
-  <si>
-    <t>구포시장</t>
+    <t>와석</t>
+  </si>
+  <si>
+    <t>엄궁롯데캐슬</t>
+  </si>
+  <si>
+    <t>괴정역.괴정사거리</t>
+  </si>
+  <si>
+    <t>다대포해수욕장</t>
+  </si>
+  <si>
+    <t>다대우신아파트</t>
   </si>
   <si>
     <t>금곡주공4단지</t>
@@ -177,10 +231,10 @@
     <t>북구</t>
   </si>
   <si>
+    <t>사하구</t>
+  </si>
+  <si>
     <t>사상구</t>
-  </si>
-  <si>
-    <t>사하구</t>
   </si>
   <si>
     <t>위치</t>
@@ -199,10 +253,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>R</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>R</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>L</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -227,6 +289,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>R</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>L</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -235,6 +301,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>R</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>L</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -243,10 +317,34 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>R</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>R</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>L</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -255,11 +353,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>R</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>L</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>R</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -341,15 +459,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -657,15 +772,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="R35" sqref="R35"/>
+      <selection activeCell="O81" sqref="O81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="2" max="2" width="21.69921875" customWidth="1"/>
     <col min="3" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
@@ -705,39 +820,39 @@
         <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>50000002929</v>
+        <v>21080541012</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E2">
-        <v>35.267162079999999</v>
+        <v>35.267470619999997</v>
       </c>
       <c r="F2">
-        <v>129.01730760000001</v>
+        <v>129.01780489999999</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2">
         <v>5</v>
@@ -746,33 +861,33 @@
         <v>2</v>
       </c>
       <c r="L2">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>21080541012</v>
+        <v>21080541002</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E3">
-        <v>35.267470619999997</v>
+        <v>35.267158979999998</v>
       </c>
       <c r="F3">
-        <v>129.01780489999999</v>
+        <v>129.01859959999999</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -784,16 +899,16 @@
         <v>6</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -801,75 +916,75 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C4">
-        <v>21080541002</v>
+        <v>21080541006</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E4">
-        <v>35.267158979999998</v>
+        <v>35.260355220000001</v>
       </c>
       <c r="F4">
-        <v>129.01859959999999</v>
+        <v>129.01618970000001</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="M4" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="N4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C5">
-        <v>21080541006</v>
+        <v>21080541007</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E5">
-        <v>35.260355220000001</v>
+        <v>35.258594420000001</v>
       </c>
       <c r="F5">
-        <v>129.01618970000001</v>
+        <v>129.0148255</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -878,10 +993,10 @@
         <v>2</v>
       </c>
       <c r="L5">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="N5">
         <v>4</v>
@@ -889,22 +1004,22 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C6">
-        <v>21080541007</v>
+        <v>21080541021</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E6">
-        <v>35.258594420000001</v>
+        <v>35.253188919999999</v>
       </c>
       <c r="F6">
-        <v>129.0148255</v>
+        <v>129.0137684</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -913,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -922,10 +1037,10 @@
         <v>2</v>
       </c>
       <c r="L6">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="N6">
         <v>5</v>
@@ -933,31 +1048,31 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <v>137</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C7">
-        <v>21080541021</v>
+        <v>21080541023</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E7">
-        <v>35.253188919999999</v>
+        <v>35.250444000000002</v>
       </c>
       <c r="F7">
-        <v>129.0137684</v>
+        <v>129.01259239999999</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -966,10 +1081,10 @@
         <v>2</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="M7" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="N7">
         <v>6</v>
@@ -977,43 +1092,43 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>21080541023</v>
+        <v>21080621011</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E8">
-        <v>35.250444000000002</v>
+        <v>35.243628600000001</v>
       </c>
       <c r="F8">
-        <v>129.01259239999999</v>
+        <v>129.01961549999999</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
       <c r="L8">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="M8" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="N8">
         <v>7</v>
@@ -1021,43 +1136,43 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="C9">
-        <v>21080621011</v>
+        <v>21080631002</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E9">
-        <v>35.243628600000001</v>
+        <v>35.233568750000003</v>
       </c>
       <c r="F9">
-        <v>129.01961549999999</v>
+        <v>129.01339949999999</v>
       </c>
       <c r="G9">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M9" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="N9">
         <v>8</v>
@@ -1065,28 +1180,28 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C10">
-        <v>21080551001</v>
+        <v>21080551003</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E10">
-        <v>35.225077450000001</v>
+        <v>35.231475789999998</v>
       </c>
       <c r="F10">
-        <v>129.0096958</v>
+        <v>129.01339680000001</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1098,10 +1213,10 @@
         <v>2</v>
       </c>
       <c r="L10">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M10" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="N10">
         <v>9</v>
@@ -1109,28 +1224,28 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C11">
-        <v>21080571012</v>
+        <v>21080551001</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E11">
-        <v>35.21189322</v>
+        <v>35.225077450000001</v>
       </c>
       <c r="F11">
-        <v>129.01027909999999</v>
+        <v>129.0096958</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1142,10 +1257,10 @@
         <v>2</v>
       </c>
       <c r="L11">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M11" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="N11">
         <v>10</v>
@@ -1153,31 +1268,31 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C12">
-        <v>21080581003</v>
+        <v>21080571015</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E12">
-        <v>35.209686779999998</v>
+        <v>35.211976120000003</v>
       </c>
       <c r="F12">
-        <v>129.0160989</v>
+        <v>129.0044102</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1186,10 +1301,10 @@
         <v>2</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M12" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="N12">
         <v>11</v>
@@ -1197,29 +1312,29 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>21080601014</v>
+        <v>21080571003</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E13">
-        <v>35.210384480000002</v>
+        <v>35.210409439999999</v>
       </c>
       <c r="F13">
-        <v>129.0380418</v>
+        <v>129.007139</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>3</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
       <c r="I13">
         <v>0</v>
       </c>
@@ -1230,124 +1345,124 @@
         <v>2</v>
       </c>
       <c r="L13">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M13" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="N13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14">
-        <v>21080591006</v>
-      </c>
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14">
-        <v>35.21367712</v>
-      </c>
-      <c r="F14">
-        <v>129.03672539999999</v>
-      </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>27</v>
-      </c>
-      <c r="M14" t="s">
-        <v>61</v>
-      </c>
-      <c r="N14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="3">
+        <v>21080561005</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="3">
+        <v>35.213154959999997</v>
+      </c>
+      <c r="F14" s="3">
+        <v>129.0228631</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>2</v>
+      </c>
+      <c r="L14" s="3">
+        <v>14</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="3">
-        <v>128</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="4">
-        <v>21080511007</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="4">
-        <v>35.209684889999998</v>
-      </c>
-      <c r="F15" s="4">
-        <v>129.00311880000001</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
-        <v>2</v>
-      </c>
-      <c r="L15" s="4">
-        <v>6</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="N15" s="4">
+    <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15">
+        <v>50000002970</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15">
+        <v>35.214022640000003</v>
+      </c>
+      <c r="F15">
+        <v>129.0360258</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>22</v>
+      </c>
+      <c r="M15" t="s">
+        <v>86</v>
+      </c>
+      <c r="N15">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C16">
-        <v>21080521016</v>
+        <v>21080601010</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E16">
-        <v>35.198268140000003</v>
+        <v>35.210058279999998</v>
       </c>
       <c r="F16">
-        <v>128.9908058</v>
+        <v>129.037611</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1362,10 +1477,10 @@
         <v>2</v>
       </c>
       <c r="L16">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="M16" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="N16">
         <v>15</v>
@@ -1373,43 +1488,43 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C17">
-        <v>21150531001</v>
+        <v>21080581004</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E17">
-        <v>35.186334119999998</v>
+        <v>35.20989831</v>
       </c>
       <c r="F17">
-        <v>128.98942159999999</v>
+        <v>129.01601669999999</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="M17" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="N17">
         <v>16</v>
@@ -1417,28 +1532,28 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C18">
-        <v>21150531005</v>
+        <v>21080521010</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E18">
-        <v>35.183933430000003</v>
+        <v>35.198988370000002</v>
       </c>
       <c r="F18">
-        <v>128.98986790000001</v>
+        <v>128.99632790000001</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1447,13 +1562,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M18" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="N18">
         <v>17</v>
@@ -1461,25 +1576,25 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C19">
-        <v>21150561012</v>
+        <v>21150531010</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E19">
-        <v>35.17480742</v>
+        <v>35.187572070000002</v>
       </c>
       <c r="F19">
-        <v>128.98410079999999</v>
+        <v>128.99061349999999</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1494,10 +1609,10 @@
         <v>1</v>
       </c>
       <c r="L19">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="M19" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="N19">
         <v>18</v>
@@ -1505,25 +1620,25 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20">
-        <v>21150551010</v>
+        <v>21150531005</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E20">
-        <v>35.171597589999998</v>
+        <v>35.183933430000003</v>
       </c>
       <c r="F20">
-        <v>128.98294619999999</v>
+        <v>128.98986790000001</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1538,10 +1653,10 @@
         <v>1</v>
       </c>
       <c r="L20">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M20" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N20">
         <v>19</v>
@@ -1549,25 +1664,25 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C21">
-        <v>21150571035</v>
+        <v>21150561012</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E21">
-        <v>35.160411940000003</v>
+        <v>35.17480742</v>
       </c>
       <c r="F21">
-        <v>128.98621840000001</v>
+        <v>128.98410079999999</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1582,10 +1697,10 @@
         <v>1</v>
       </c>
       <c r="L21">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="M21" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="N21">
         <v>20</v>
@@ -1593,25 +1708,25 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C22">
-        <v>21150591013</v>
+        <v>21150551010</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E22">
-        <v>35.155000440000002</v>
+        <v>35.171597589999998</v>
       </c>
       <c r="F22">
-        <v>128.9917189</v>
+        <v>128.98294619999999</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1620,16 +1735,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="M22" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="N22">
         <v>21</v>
@@ -1637,25 +1752,25 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C23">
-        <v>21150631036</v>
+        <v>21150571035</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E23">
-        <v>35.14667944</v>
+        <v>35.160411940000003</v>
       </c>
       <c r="F23">
-        <v>128.99476390000001</v>
+        <v>128.98621840000001</v>
       </c>
       <c r="G23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1670,10 +1785,10 @@
         <v>1</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M23" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="N23">
         <v>22</v>
@@ -1681,22 +1796,22 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C24">
-        <v>21150641006</v>
+        <v>21150591013</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E24">
-        <v>35.128629519999997</v>
+        <v>35.155000440000002</v>
       </c>
       <c r="F24">
-        <v>128.97286679999999</v>
+        <v>128.9917189</v>
       </c>
       <c r="G24">
         <v>4</v>
@@ -1708,16 +1823,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M24" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="N24">
         <v>23</v>
@@ -1725,28 +1840,28 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>41</v>
       </c>
       <c r="C25">
-        <v>21150641005</v>
+        <v>21150621003</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E25">
-        <v>35.128878049999997</v>
+        <v>35.149403309999997</v>
       </c>
       <c r="F25">
-        <v>128.97117660000001</v>
+        <v>128.99976369999999</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1758,10 +1873,10 @@
         <v>1</v>
       </c>
       <c r="L25">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M25" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="N25">
         <v>24</v>
@@ -1769,25 +1884,25 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C26">
-        <v>21100571020</v>
+        <v>21150631036</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E26">
-        <v>35.112320609999998</v>
+        <v>35.14667944</v>
       </c>
       <c r="F26">
-        <v>128.96421169999999</v>
+        <v>128.99476390000001</v>
       </c>
       <c r="G26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1799,13 +1914,13 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M26" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="N26">
         <v>25</v>
@@ -1813,28 +1928,28 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27">
-        <v>50000000046</v>
+        <v>21150631031</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E27">
-        <v>35.107498579999998</v>
+        <v>35.14140785</v>
       </c>
       <c r="F27">
-        <v>128.9673871</v>
+        <v>128.98348469999999</v>
       </c>
       <c r="G27">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1843,13 +1958,13 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="M27" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="N27">
         <v>26</v>
@@ -1857,28 +1972,28 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="C28">
-        <v>21100571002</v>
+        <v>21150631012</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E28">
-        <v>35.106344790000001</v>
+        <v>35.140189589999999</v>
       </c>
       <c r="F28">
-        <v>128.96639049999999</v>
+        <v>128.98153450000001</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1887,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M28" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="N28">
         <v>27</v>
@@ -1901,43 +2016,43 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C29">
-        <v>21100561020</v>
+        <v>21150631002</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E29">
-        <v>35.106117079999997</v>
+        <v>35.138558279999998</v>
       </c>
       <c r="F29">
-        <v>128.9652591</v>
+        <v>128.97853649999999</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
         <v>1</v>
       </c>
-      <c r="K29">
-        <v>4</v>
-      </c>
       <c r="L29">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="M29" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="N29">
         <v>28</v>
@@ -1945,28 +2060,28 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="C30">
-        <v>21100551007</v>
+        <v>21150641007</v>
       </c>
       <c r="D30" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E30">
-        <v>35.102890119999998</v>
+        <v>35.128678700000002</v>
       </c>
       <c r="F30">
-        <v>128.9751842</v>
+        <v>128.9745738</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1975,13 +2090,13 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="M30" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="N30">
         <v>29</v>
@@ -1989,28 +2104,28 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C31">
-        <v>21100511001</v>
+        <v>21150641006</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E31">
-        <v>35.0990903</v>
+        <v>35.128629519999997</v>
       </c>
       <c r="F31">
-        <v>128.98954330000001</v>
+        <v>128.97286679999999</v>
       </c>
       <c r="G31">
         <v>4</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2019,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M31" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="N31">
         <v>30</v>
@@ -2033,43 +2148,43 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C32">
-        <v>21100641008</v>
+        <v>21150641005</v>
       </c>
       <c r="D32" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E32">
-        <v>35.086411550000001</v>
+        <v>35.128878049999997</v>
       </c>
       <c r="F32">
-        <v>128.99311710000001</v>
+        <v>128.97117660000001</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M32" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="N32">
         <v>31</v>
@@ -2077,31 +2192,31 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C33">
-        <v>21100641006</v>
+        <v>21100571007</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E33">
-        <v>35.085833749999999</v>
+        <v>35.11409622</v>
       </c>
       <c r="F33">
-        <v>128.98615380000001</v>
+        <v>128.96261860000001</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2110,10 +2225,10 @@
         <v>4</v>
       </c>
       <c r="L33">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M33" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="N33">
         <v>32</v>
@@ -2121,25 +2236,25 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C34">
-        <v>50000002056</v>
+        <v>21100571020</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E34">
-        <v>35.089865260000003</v>
+        <v>35.112320609999998</v>
       </c>
       <c r="F34">
-        <v>128.9741339</v>
+        <v>128.96421169999999</v>
       </c>
       <c r="G34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -2154,142 +2269,142 @@
         <v>4</v>
       </c>
       <c r="L34">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M34" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N34">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A35" s="3">
-        <v>67</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="4">
-        <v>50000002534</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" s="4">
-        <v>35.082742680000003</v>
-      </c>
-      <c r="F35" s="4">
-        <v>128.96606869999999</v>
-      </c>
-      <c r="G35" s="4">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35">
+        <v>50000000046</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35">
+        <v>35.107498579999998</v>
+      </c>
+      <c r="F35">
+        <v>128.9673871</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+      <c r="H35">
         <v>3</v>
       </c>
-      <c r="H35" s="4">
-        <v>0</v>
-      </c>
-      <c r="I35" s="4">
-        <v>0</v>
-      </c>
-      <c r="J35" s="4">
-        <v>0</v>
-      </c>
-      <c r="K35" s="4">
-        <v>4</v>
-      </c>
-      <c r="L35" s="4">
-        <v>19</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="N35" s="4">
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>4</v>
+      </c>
+      <c r="L35">
+        <v>46</v>
+      </c>
+      <c r="M35" t="s">
+        <v>96</v>
+      </c>
+      <c r="N35">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A36" s="3">
-        <v>88</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="4">
-        <v>21100601028</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36" s="4">
-        <v>35.082489719999998</v>
-      </c>
-      <c r="F36" s="4">
-        <v>128.96591169999999</v>
-      </c>
-      <c r="G36" s="4">
-        <v>2</v>
-      </c>
-      <c r="H36" s="4">
-        <v>0</v>
-      </c>
-      <c r="I36" s="4">
-        <v>0</v>
-      </c>
-      <c r="J36" s="4">
-        <v>0</v>
-      </c>
-      <c r="K36" s="4">
-        <v>4</v>
-      </c>
-      <c r="L36" s="4">
-        <v>14</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N36" s="4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>21100571002</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36">
+        <v>35.106344790000001</v>
+      </c>
+      <c r="F36">
+        <v>128.96639049999999</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <v>11</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>4</v>
+      </c>
+      <c r="L36">
+        <v>68</v>
+      </c>
+      <c r="M36" t="s">
+        <v>96</v>
+      </c>
+      <c r="N36">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C37">
-        <v>21100581003</v>
+        <v>21100561020</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E37">
-        <v>35.08965551</v>
+        <v>35.106117079999997</v>
       </c>
       <c r="F37">
-        <v>128.973735</v>
+        <v>128.9652591</v>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37">
         <v>4</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="M37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N37">
         <v>36</v>
@@ -2297,31 +2412,31 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C38">
-        <v>21100641004</v>
+        <v>21100561012</v>
       </c>
       <c r="D38" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E38">
-        <v>35.085585870000003</v>
+        <v>35.104466199999997</v>
       </c>
       <c r="F38">
-        <v>128.98642340000001</v>
+        <v>128.97043260000001</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I38">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2330,83 +2445,83 @@
         <v>4</v>
       </c>
       <c r="L38">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M38" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="N38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C39">
-        <v>21100641007</v>
+        <v>21100551007</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E39">
-        <v>35.0863929</v>
+        <v>35.102890119999998</v>
       </c>
       <c r="F39">
-        <v>128.99342909999999</v>
+        <v>128.9751842</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>4</v>
       </c>
       <c r="L39">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M39" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="N39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C40">
-        <v>21100511002</v>
+        <v>21100511001</v>
       </c>
       <c r="D40" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E40">
-        <v>35.099373180000001</v>
+        <v>35.0990903</v>
       </c>
       <c r="F40">
-        <v>128.9886722</v>
+        <v>128.98954330000001</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -2418,10 +2533,10 @@
         <v>4</v>
       </c>
       <c r="L40">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="M40" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="N40">
         <v>39</v>
@@ -2429,29 +2544,29 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C41">
-        <v>21100551002</v>
+        <v>50000002631</v>
       </c>
       <c r="D41" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E41">
-        <v>35.102149730000001</v>
+        <v>35.099723679999997</v>
       </c>
       <c r="F41">
-        <v>128.97779589999999</v>
+        <v>128.99234390000001</v>
       </c>
       <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>1</v>
       </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
       <c r="I41">
         <v>0</v>
       </c>
@@ -2462,10 +2577,10 @@
         <v>4</v>
       </c>
       <c r="L41">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M41" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="N41">
         <v>40</v>
@@ -2473,31 +2588,31 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C42">
-        <v>21100551005</v>
+        <v>21100511008</v>
       </c>
       <c r="D42" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E42">
-        <v>35.10358746</v>
+        <v>35.099041819999997</v>
       </c>
       <c r="F42">
-        <v>128.9741856</v>
+        <v>128.9934538</v>
       </c>
       <c r="G42">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2506,10 +2621,10 @@
         <v>4</v>
       </c>
       <c r="L42">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M42" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="N42">
         <v>41</v>
@@ -2517,28 +2632,28 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C43">
-        <v>21100571004</v>
+        <v>21100641001</v>
       </c>
       <c r="D43" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E43">
-        <v>35.107663610000003</v>
+        <v>35.088032669999997</v>
       </c>
       <c r="F43">
-        <v>128.96776600000001</v>
+        <v>128.99395490000001</v>
       </c>
       <c r="G43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -2550,10 +2665,10 @@
         <v>4</v>
       </c>
       <c r="L43">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M43" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="N43">
         <v>42</v>
@@ -2561,43 +2676,43 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C44">
-        <v>21100571006</v>
+        <v>21100641008</v>
       </c>
       <c r="D44" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E44">
-        <v>35.112603319999998</v>
+        <v>35.086411550000001</v>
       </c>
       <c r="F44">
-        <v>128.964507</v>
+        <v>128.99311710000001</v>
       </c>
       <c r="G44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K44">
         <v>4</v>
       </c>
       <c r="L44">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M44" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="N44">
         <v>43</v>
@@ -2605,28 +2720,28 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C45">
-        <v>21150641003</v>
+        <v>21100641005</v>
       </c>
       <c r="D45" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E45">
-        <v>35.128608909999997</v>
+        <v>35.085944609999999</v>
       </c>
       <c r="F45">
-        <v>128.9713419</v>
+        <v>128.9903625</v>
       </c>
       <c r="G45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -2635,13 +2750,13 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L45">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M45" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="N45">
         <v>44</v>
@@ -2649,43 +2764,43 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C46">
-        <v>21150641002</v>
+        <v>21100641006</v>
       </c>
       <c r="D46" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E46">
-        <v>35.12837244</v>
+        <v>35.085833749999999</v>
       </c>
       <c r="F46">
-        <v>128.97286080000001</v>
+        <v>128.98615380000001</v>
       </c>
       <c r="G46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L46">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M46" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="N46">
         <v>45</v>
@@ -2693,28 +2808,28 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C47">
-        <v>21150621005</v>
+        <v>21100611010</v>
       </c>
       <c r="D47" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E47">
-        <v>35.146450989999998</v>
+        <v>35.078146390000001</v>
       </c>
       <c r="F47">
-        <v>128.9949091</v>
+        <v>128.97710989999999</v>
       </c>
       <c r="G47">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -2723,13 +2838,13 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L47">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="M47" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="N47">
         <v>46</v>
@@ -2737,43 +2852,43 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C48">
-        <v>21150591015</v>
+        <v>21100611015</v>
       </c>
       <c r="D48" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E48">
-        <v>35.155194289999997</v>
+        <v>35.074878660000003</v>
       </c>
       <c r="F48">
-        <v>128.99192450000001</v>
+        <v>128.97650809999999</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L48">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M48" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="N48">
         <v>47</v>
@@ -2781,43 +2896,43 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C49">
-        <v>21150571036</v>
+        <v>21100631004</v>
       </c>
       <c r="D49" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E49">
-        <v>35.160550819999997</v>
+        <v>35.06426621</v>
       </c>
       <c r="F49">
-        <v>128.98648779999999</v>
+        <v>128.97935050000001</v>
       </c>
       <c r="G49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L49">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M49" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="N49">
         <v>48</v>
@@ -2825,28 +2940,28 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C50">
-        <v>21150551002</v>
+        <v>21100621012</v>
       </c>
       <c r="D50" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E50">
-        <v>35.171034910000003</v>
+        <v>35.05743966</v>
       </c>
       <c r="F50">
-        <v>128.98307980000001</v>
+        <v>128.97097289999999</v>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -2855,13 +2970,13 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L50">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M50" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="N50">
         <v>49</v>
@@ -2869,28 +2984,28 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C51">
-        <v>21150561005</v>
+        <v>50000002426</v>
       </c>
       <c r="D51" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E51">
-        <v>35.174764639999999</v>
+        <v>35.056410319999998</v>
       </c>
       <c r="F51">
-        <v>128.98439329999999</v>
+        <v>128.97042920000001</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -2899,86 +3014,86 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L51">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M51" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="N51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="3">
-        <v>58</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C52" s="4">
-        <v>21150561003</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E52" s="4">
-        <v>35.180609089999997</v>
-      </c>
-      <c r="F52" s="4">
-        <v>128.9857998</v>
-      </c>
-      <c r="G52" s="4">
-        <v>4</v>
-      </c>
-      <c r="H52" s="4">
-        <v>0</v>
-      </c>
-      <c r="I52" s="4">
-        <v>0</v>
-      </c>
-      <c r="J52" s="4">
-        <v>0</v>
-      </c>
-      <c r="K52" s="4">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52">
+        <v>21100621023</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52">
+        <v>35.05461949</v>
+      </c>
+      <c r="F52">
+        <v>128.97044700000001</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
         <v>1</v>
       </c>
-      <c r="L52" s="4">
-        <v>21</v>
-      </c>
-      <c r="M52" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N52" s="4">
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>4</v>
+      </c>
+      <c r="L52">
+        <v>8</v>
+      </c>
+      <c r="M52" t="s">
+        <v>76</v>
+      </c>
+      <c r="N52">
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C53">
-        <v>21150531007</v>
+        <v>21100621013</v>
       </c>
       <c r="D53" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E53">
-        <v>35.183670139999997</v>
+        <v>35.051661670000001</v>
       </c>
       <c r="F53">
-        <v>128.99009520000001</v>
+        <v>128.9706535</v>
       </c>
       <c r="G53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -2987,130 +3102,130 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L53">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M53" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="N53">
         <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A54" s="3">
-        <v>68</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C54" s="4">
-        <v>21150541005</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E54" s="4">
-        <v>35.185516020000001</v>
-      </c>
-      <c r="F54" s="4">
-        <v>128.99935020000001</v>
-      </c>
-      <c r="G54" s="4">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54">
+        <v>21100621014</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54">
+        <v>35.049039319999999</v>
+      </c>
+      <c r="F54">
+        <v>128.96972389999999</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
+      </c>
+      <c r="K54">
+        <v>4</v>
+      </c>
+      <c r="L54">
+        <v>8</v>
+      </c>
+      <c r="M54" t="s">
+        <v>73</v>
+      </c>
+      <c r="N54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55">
+        <v>21100621020</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55">
+        <v>35.049064909999998</v>
+      </c>
+      <c r="F55">
+        <v>128.97009439999999</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
         <v>1</v>
       </c>
-      <c r="H54" s="4">
-        <v>3</v>
-      </c>
-      <c r="I54" s="4">
-        <v>0</v>
-      </c>
-      <c r="J54" s="4">
-        <v>0</v>
-      </c>
-      <c r="K54" s="4">
-        <v>1</v>
-      </c>
-      <c r="L54" s="4">
-        <v>18</v>
-      </c>
-      <c r="M54" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N54" s="4">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A55" s="3">
-        <v>107</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C55" s="4">
-        <v>21150541004</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E55" s="4">
-        <v>35.186060150000003</v>
-      </c>
-      <c r="F55" s="4">
-        <v>128.99940309999999</v>
-      </c>
-      <c r="G55" s="4">
-        <v>0</v>
-      </c>
-      <c r="H55" s="4">
-        <v>2</v>
-      </c>
-      <c r="I55" s="4">
-        <v>0</v>
-      </c>
-      <c r="J55" s="4">
-        <v>0</v>
-      </c>
-      <c r="K55" s="4">
-        <v>1</v>
-      </c>
-      <c r="L55" s="4">
-        <v>9</v>
-      </c>
-      <c r="M55" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N55" s="4">
+      <c r="K55">
+        <v>4</v>
+      </c>
+      <c r="L55">
+        <v>6</v>
+      </c>
+      <c r="M55" t="s">
+        <v>78</v>
+      </c>
+      <c r="N55">
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C56">
-        <v>21150531009</v>
+        <v>21100621024</v>
       </c>
       <c r="D56" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E56">
-        <v>35.186791929999998</v>
+        <v>35.051573449999999</v>
       </c>
       <c r="F56">
-        <v>128.98982770000001</v>
+        <v>128.97096479999999</v>
       </c>
       <c r="G56">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -3119,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L56">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M56" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="N56">
         <v>55</v>
@@ -3133,28 +3248,28 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C57">
-        <v>21080521001</v>
+        <v>21100621004</v>
       </c>
       <c r="D57" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E57">
-        <v>35.197175129999998</v>
+        <v>35.055064829999999</v>
       </c>
       <c r="F57">
-        <v>128.9909533</v>
+        <v>128.97169049999999</v>
       </c>
       <c r="G57">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -3163,101 +3278,101 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L57">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="M57" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="N57">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A58" s="3">
-        <v>129</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C58" s="4">
-        <v>21080511006</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E58" s="4">
-        <v>35.20952561</v>
-      </c>
-      <c r="F58" s="4">
-        <v>129.00321919999999</v>
-      </c>
-      <c r="G58" s="4">
-        <v>0</v>
-      </c>
-      <c r="H58" s="4">
-        <v>1</v>
-      </c>
-      <c r="I58" s="4">
-        <v>0</v>
-      </c>
-      <c r="J58" s="4">
-        <v>0</v>
-      </c>
-      <c r="K58" s="4">
-        <v>2</v>
-      </c>
-      <c r="L58" s="4">
-        <v>6</v>
-      </c>
-      <c r="M58" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N58" s="4">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58">
+        <v>21100621003</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58">
+        <v>35.056047270000001</v>
+      </c>
+      <c r="F58">
+        <v>128.97165179999999</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>4</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>4</v>
+      </c>
+      <c r="L58">
+        <v>20</v>
+      </c>
+      <c r="M58" t="s">
+        <v>85</v>
+      </c>
+      <c r="N58">
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C59">
-        <v>50000002970</v>
+        <v>21100631003</v>
       </c>
       <c r="D59" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E59">
-        <v>35.214022640000003</v>
+        <v>35.064303940000002</v>
       </c>
       <c r="F59">
-        <v>129.0360258</v>
+        <v>128.97966729999999</v>
       </c>
       <c r="G59">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L59">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M59" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="N59">
         <v>58</v>
@@ -3265,28 +3380,28 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C60">
-        <v>21080601010</v>
+        <v>21100611011</v>
       </c>
       <c r="D60" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E60">
-        <v>35.210058279999998</v>
+        <v>35.075000289999998</v>
       </c>
       <c r="F60">
-        <v>129.037611</v>
+        <v>128.9768694</v>
       </c>
       <c r="G60">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -3295,13 +3410,13 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L60">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M60" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="N60">
         <v>59</v>
@@ -3309,43 +3424,43 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61">
+        <v>21100611007</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61">
+        <v>35.07836399</v>
+      </c>
+      <c r="F61">
+        <v>128.9774625</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>4</v>
+      </c>
+      <c r="L61">
         <v>16</v>
       </c>
-      <c r="B61" t="s">
-        <v>19</v>
-      </c>
-      <c r="C61">
-        <v>21080581004</v>
-      </c>
-      <c r="D61" t="s">
-        <v>50</v>
-      </c>
-      <c r="E61">
-        <v>35.20989831</v>
-      </c>
-      <c r="F61">
-        <v>129.01601669999999</v>
-      </c>
-      <c r="G61">
-        <v>4</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>3</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>2</v>
-      </c>
-      <c r="L61">
-        <v>31</v>
-      </c>
       <c r="M61" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="N61">
         <v>60</v>
@@ -3353,43 +3468,43 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C62">
-        <v>21080561031</v>
+        <v>21100641004</v>
       </c>
       <c r="D62" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E62">
-        <v>35.211955719999999</v>
+        <v>35.085585870000003</v>
       </c>
       <c r="F62">
-        <v>129.01052659999999</v>
+        <v>128.98642340000001</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L62">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M62" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="N62">
         <v>61</v>
@@ -3397,28 +3512,28 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C63">
-        <v>21080551004</v>
+        <v>21100641003</v>
       </c>
       <c r="D63" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E63">
-        <v>35.22516212</v>
+        <v>35.085454810000002</v>
       </c>
       <c r="F63">
-        <v>129.01012370000001</v>
+        <v>128.99057920000001</v>
       </c>
       <c r="G63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -3427,13 +3542,13 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L63">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M63" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="N63">
         <v>62</v>
@@ -3441,43 +3556,43 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64">
+        <v>21100641007</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64">
+        <v>35.0863929</v>
+      </c>
+      <c r="F64">
+        <v>128.99342909999999</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
         <v>3</v>
       </c>
-      <c r="B64" t="s">
-        <v>11</v>
-      </c>
-      <c r="C64">
-        <v>21080621006</v>
-      </c>
-      <c r="D64" t="s">
-        <v>50</v>
-      </c>
-      <c r="E64">
-        <v>35.243745650000001</v>
-      </c>
-      <c r="F64">
-        <v>129.0194008</v>
-      </c>
-      <c r="G64">
-        <v>9</v>
-      </c>
-      <c r="H64">
-        <v>4</v>
-      </c>
       <c r="I64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L64">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="M64" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="N64">
         <v>63</v>
@@ -3485,28 +3600,28 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C65">
-        <v>21080541024</v>
+        <v>21100641002</v>
       </c>
       <c r="D65" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E65">
-        <v>35.250138339999999</v>
+        <v>35.087972890000003</v>
       </c>
       <c r="F65">
-        <v>129.01268669999999</v>
+        <v>128.9942619</v>
       </c>
       <c r="G65">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -3515,101 +3630,101 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L65">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="M65" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="N65">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C66">
-        <v>21080541026</v>
+        <v>21100531007</v>
       </c>
       <c r="D66" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E66">
-        <v>35.25339898</v>
+        <v>35.098044360000003</v>
       </c>
       <c r="F66">
-        <v>129.014005</v>
+        <v>128.9941039</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L66">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M66" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="N66">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C67">
-        <v>21080541008</v>
+        <v>21100511003</v>
       </c>
       <c r="D67" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E67">
-        <v>35.258557099999997</v>
+        <v>35.100026329999999</v>
       </c>
       <c r="F67">
-        <v>129.0151224</v>
+        <v>128.99222560000001</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L67">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="M67" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="N67">
         <v>66</v>
@@ -3617,43 +3732,43 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68">
+        <v>21100511002</v>
+      </c>
+      <c r="D68" t="s">
         <v>69</v>
       </c>
-      <c r="B68" t="s">
-        <v>28</v>
-      </c>
-      <c r="C68">
-        <v>21080541009</v>
-      </c>
-      <c r="D68" t="s">
-        <v>50</v>
-      </c>
       <c r="E68">
-        <v>35.260474899999998</v>
+        <v>35.099373180000001</v>
       </c>
       <c r="F68">
-        <v>129.0164753</v>
+        <v>128.9886722</v>
       </c>
       <c r="G68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L68">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M68" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="N68">
         <v>67</v>
@@ -3661,43 +3776,43 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C69">
-        <v>21080541011</v>
+        <v>21100551005</v>
       </c>
       <c r="D69" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E69">
-        <v>35.267025240000002</v>
+        <v>35.10358746</v>
       </c>
       <c r="F69">
-        <v>129.0196177</v>
+        <v>128.9741856</v>
       </c>
       <c r="G69">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L69">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M69" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="N69">
         <v>68</v>
@@ -3705,43 +3820,43 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70">
+        <v>21100551004</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70">
+        <v>35.104874410000001</v>
+      </c>
+      <c r="F70">
+        <v>128.9703232</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
         <v>7</v>
       </c>
-      <c r="B70" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70">
-        <v>21080541001</v>
-      </c>
-      <c r="D70" t="s">
-        <v>50</v>
-      </c>
-      <c r="E70">
-        <v>35.267668530000002</v>
-      </c>
-      <c r="F70">
-        <v>129.01797869999999</v>
-      </c>
-      <c r="G70">
-        <v>6</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
       <c r="I70">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L70">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="M70" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="N70">
         <v>69</v>
@@ -3749,59 +3864,1512 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C71">
-        <v>50000002928</v>
+        <v>21100571004</v>
       </c>
       <c r="D71" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E71">
-        <v>35.26654113</v>
+        <v>35.107663610000003</v>
       </c>
       <c r="F71">
-        <v>129.0164461</v>
+        <v>128.96776600000001</v>
       </c>
       <c r="G71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L71">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="M71" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="N71">
         <v>70</v>
       </c>
     </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72">
+        <v>21100571006</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72">
+        <v>35.112603319999998</v>
+      </c>
+      <c r="F72">
+        <v>128.964507</v>
+      </c>
+      <c r="G72">
+        <v>5</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>4</v>
+      </c>
+      <c r="L72">
+        <v>29</v>
+      </c>
+      <c r="M72" t="s">
+        <v>74</v>
+      </c>
+      <c r="N72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>35</v>
+      </c>
+      <c r="C73">
+        <v>21100571021</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73">
+        <v>35.114654280000003</v>
+      </c>
+      <c r="F73">
+        <v>128.96262429999999</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>3</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>4</v>
+      </c>
+      <c r="L73">
+        <v>16</v>
+      </c>
+      <c r="M73" t="s">
+        <v>74</v>
+      </c>
+      <c r="N73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74">
+        <v>21150641003</v>
+      </c>
+      <c r="D74" t="s">
+        <v>70</v>
+      </c>
+      <c r="E74">
+        <v>35.128608909999997</v>
+      </c>
+      <c r="F74">
+        <v>128.9713419</v>
+      </c>
+      <c r="G74">
+        <v>3</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>16</v>
+      </c>
+      <c r="M74" t="s">
+        <v>98</v>
+      </c>
+      <c r="N74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75">
+        <v>21150641002</v>
+      </c>
+      <c r="D75" t="s">
+        <v>70</v>
+      </c>
+      <c r="E75">
+        <v>35.12837244</v>
+      </c>
+      <c r="F75">
+        <v>128.97286080000001</v>
+      </c>
+      <c r="G75">
+        <v>4</v>
+      </c>
+      <c r="H75">
+        <v>3</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>33</v>
+      </c>
+      <c r="M75" t="s">
+        <v>94</v>
+      </c>
+      <c r="N75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>63</v>
+      </c>
+      <c r="C76">
+        <v>21150641001</v>
+      </c>
+      <c r="D76" t="s">
+        <v>70</v>
+      </c>
+      <c r="E76">
+        <v>35.128566409999998</v>
+      </c>
+      <c r="F76">
+        <v>128.97480229999999</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>2</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>9</v>
+      </c>
+      <c r="M76" t="s">
+        <v>78</v>
+      </c>
+      <c r="N76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>51</v>
+      </c>
+      <c r="C77">
+        <v>21150631003</v>
+      </c>
+      <c r="D77" t="s">
+        <v>70</v>
+      </c>
+      <c r="E77">
+        <v>35.138101349999999</v>
+      </c>
+      <c r="F77">
+        <v>128.9783142</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>4</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>17</v>
+      </c>
+      <c r="M77" t="s">
+        <v>95</v>
+      </c>
+      <c r="N77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>58</v>
+      </c>
+      <c r="C78">
+        <v>21150631001</v>
+      </c>
+      <c r="D78" t="s">
+        <v>70</v>
+      </c>
+      <c r="E78">
+        <v>35.13992837</v>
+      </c>
+      <c r="F78">
+        <v>128.98167480000001</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>9</v>
+      </c>
+      <c r="M78" t="s">
+        <v>78</v>
+      </c>
+      <c r="N78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79">
+        <v>21150631027</v>
+      </c>
+      <c r="D79" t="s">
+        <v>70</v>
+      </c>
+      <c r="E79">
+        <v>35.141458460000003</v>
+      </c>
+      <c r="F79">
+        <v>128.98383200000001</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>10</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>41</v>
+      </c>
+      <c r="M79" t="s">
+        <v>74</v>
+      </c>
+      <c r="N79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80">
+        <v>21150621005</v>
+      </c>
+      <c r="D80" t="s">
+        <v>70</v>
+      </c>
+      <c r="E80">
+        <v>35.146450989999998</v>
+      </c>
+      <c r="F80">
+        <v>128.9949091</v>
+      </c>
+      <c r="G80">
+        <v>6</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>31</v>
+      </c>
+      <c r="M80" t="s">
+        <v>74</v>
+      </c>
+      <c r="N80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>41</v>
+      </c>
+      <c r="C81">
+        <v>21150621002</v>
+      </c>
+      <c r="D81" t="s">
+        <v>70</v>
+      </c>
+      <c r="E81">
+        <v>35.149149420000001</v>
+      </c>
+      <c r="F81">
+        <v>129.0000063</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>4</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>17</v>
+      </c>
+      <c r="M81" t="s">
+        <v>94</v>
+      </c>
+      <c r="N81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82">
+        <v>21150591015</v>
+      </c>
+      <c r="D82" t="s">
+        <v>70</v>
+      </c>
+      <c r="E82">
+        <v>35.155194289999997</v>
+      </c>
+      <c r="F82">
+        <v>128.99192450000001</v>
+      </c>
+      <c r="G82">
+        <v>2</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>4</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>19</v>
+      </c>
+      <c r="M82" t="s">
+        <v>74</v>
+      </c>
+      <c r="N82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83">
+        <v>21150571036</v>
+      </c>
+      <c r="D83" t="s">
+        <v>70</v>
+      </c>
+      <c r="E83">
+        <v>35.160550819999997</v>
+      </c>
+      <c r="F83">
+        <v>128.98648779999999</v>
+      </c>
+      <c r="G83">
+        <v>4</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>21</v>
+      </c>
+      <c r="M83" t="s">
+        <v>93</v>
+      </c>
+      <c r="N83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>53</v>
+      </c>
+      <c r="C84">
+        <v>21150551002</v>
+      </c>
+      <c r="D84" t="s">
+        <v>70</v>
+      </c>
+      <c r="E84">
+        <v>35.171034910000003</v>
+      </c>
+      <c r="F84">
+        <v>128.98307980000001</v>
+      </c>
+      <c r="G84">
+        <v>3</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>16</v>
+      </c>
+      <c r="M84" t="s">
+        <v>92</v>
+      </c>
+      <c r="N84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>61</v>
+      </c>
+      <c r="C85">
+        <v>21150561005</v>
+      </c>
+      <c r="D85" t="s">
+        <v>70</v>
+      </c>
+      <c r="E85">
+        <v>35.174764639999999</v>
+      </c>
+      <c r="F85">
+        <v>128.98439329999999</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>6</v>
+      </c>
+      <c r="M85" t="s">
+        <v>74</v>
+      </c>
+      <c r="N85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>40</v>
+      </c>
+      <c r="C86">
+        <v>21150531007</v>
+      </c>
+      <c r="D86" t="s">
+        <v>70</v>
+      </c>
+      <c r="E86">
+        <v>35.183670139999997</v>
+      </c>
+      <c r="F86">
+        <v>128.99009520000001</v>
+      </c>
+      <c r="G86">
+        <v>4</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>21</v>
+      </c>
+      <c r="M86" t="s">
+        <v>91</v>
+      </c>
+      <c r="N86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>39</v>
+      </c>
+      <c r="C87">
+        <v>21150531016</v>
+      </c>
+      <c r="D87" t="s">
+        <v>70</v>
+      </c>
+      <c r="E87">
+        <v>35.187353520000002</v>
+      </c>
+      <c r="F87">
+        <v>128.99097499999999</v>
+      </c>
+      <c r="G87">
+        <v>3</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>16</v>
+      </c>
+      <c r="M87" t="s">
+        <v>74</v>
+      </c>
+      <c r="N87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>56</v>
+      </c>
+      <c r="C88">
+        <v>21080521012</v>
+      </c>
+      <c r="D88" t="s">
+        <v>68</v>
+      </c>
+      <c r="E88">
+        <v>35.198750920000002</v>
+      </c>
+      <c r="F88">
+        <v>128.99658120000001</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>3</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <v>14</v>
+      </c>
+      <c r="M88" t="s">
+        <v>89</v>
+      </c>
+      <c r="N88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89">
+        <v>21080581003</v>
+      </c>
+      <c r="D89" t="s">
+        <v>68</v>
+      </c>
+      <c r="E89">
+        <v>35.209686779999998</v>
+      </c>
+      <c r="F89">
+        <v>129.0160989</v>
+      </c>
+      <c r="G89">
+        <v>4</v>
+      </c>
+      <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89">
+        <v>3</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>2</v>
+      </c>
+      <c r="L89">
+        <v>39</v>
+      </c>
+      <c r="M89" t="s">
+        <v>74</v>
+      </c>
+      <c r="N89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>30</v>
+      </c>
+      <c r="C90">
+        <v>21080601014</v>
+      </c>
+      <c r="D90" t="s">
+        <v>68</v>
+      </c>
+      <c r="E90">
+        <v>35.210384480000002</v>
+      </c>
+      <c r="F90">
+        <v>129.0380418</v>
+      </c>
+      <c r="G90">
+        <v>3</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <v>17</v>
+      </c>
+      <c r="M90" t="s">
+        <v>85</v>
+      </c>
+      <c r="N90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>29</v>
+      </c>
+      <c r="C91">
+        <v>21080591006</v>
+      </c>
+      <c r="D91" t="s">
+        <v>68</v>
+      </c>
+      <c r="E91">
+        <v>35.21367712</v>
+      </c>
+      <c r="F91">
+        <v>129.03672539999999</v>
+      </c>
+      <c r="G91">
+        <v>5</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>2</v>
+      </c>
+      <c r="L91">
+        <v>27</v>
+      </c>
+      <c r="M91" t="s">
+        <v>85</v>
+      </c>
+      <c r="N91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92" s="3">
+        <v>21080561002</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E92" s="3">
+        <v>35.213431460000002</v>
+      </c>
+      <c r="F92" s="3">
+        <v>129.02272199999999</v>
+      </c>
+      <c r="G92" s="3">
+        <v>0</v>
+      </c>
+      <c r="H92" s="3">
+        <v>3</v>
+      </c>
+      <c r="I92" s="3">
+        <v>0</v>
+      </c>
+      <c r="J92" s="3">
+        <v>0</v>
+      </c>
+      <c r="K92" s="3">
+        <v>2</v>
+      </c>
+      <c r="L92" s="3">
+        <v>14</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93">
+        <v>21080571009</v>
+      </c>
+      <c r="D93" t="s">
+        <v>68</v>
+      </c>
+      <c r="E93">
+        <v>35.210935460000002</v>
+      </c>
+      <c r="F93">
+        <v>129.00802479999999</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>10</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>2</v>
+      </c>
+      <c r="L93">
+        <v>42</v>
+      </c>
+      <c r="M93" t="s">
+        <v>85</v>
+      </c>
+      <c r="N93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>38</v>
+      </c>
+      <c r="C94">
+        <v>21080571013</v>
+      </c>
+      <c r="D94" t="s">
+        <v>68</v>
+      </c>
+      <c r="E94">
+        <v>35.211983830000001</v>
+      </c>
+      <c r="F94">
+        <v>129.00477179999999</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>4</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>2</v>
+      </c>
+      <c r="L94">
+        <v>18</v>
+      </c>
+      <c r="M94" t="s">
+        <v>83</v>
+      </c>
+      <c r="N94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>37</v>
+      </c>
+      <c r="C95">
+        <v>21080551004</v>
+      </c>
+      <c r="D95" t="s">
+        <v>68</v>
+      </c>
+      <c r="E95">
+        <v>35.22516212</v>
+      </c>
+      <c r="F95">
+        <v>129.01012370000001</v>
+      </c>
+      <c r="G95">
+        <v>3</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>2</v>
+      </c>
+      <c r="L95">
+        <v>17</v>
+      </c>
+      <c r="M95" t="s">
+        <v>82</v>
+      </c>
+      <c r="N95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>49</v>
+      </c>
+      <c r="C96">
+        <v>21080631003</v>
+      </c>
+      <c r="D96" t="s">
+        <v>68</v>
+      </c>
+      <c r="E96">
+        <v>35.231688290000001</v>
+      </c>
+      <c r="F96">
+        <v>129.01304099999999</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>4</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>2</v>
+      </c>
+      <c r="L96">
+        <v>18</v>
+      </c>
+      <c r="M96" t="s">
+        <v>74</v>
+      </c>
+      <c r="N96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>62</v>
+      </c>
+      <c r="C97">
+        <v>21080551002</v>
+      </c>
+      <c r="D97" t="s">
+        <v>68</v>
+      </c>
+      <c r="E97">
+        <v>35.23398718</v>
+      </c>
+      <c r="F97">
+        <v>129.01385049999999</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>2</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>2</v>
+      </c>
+      <c r="L97">
+        <v>10</v>
+      </c>
+      <c r="M97" t="s">
+        <v>74</v>
+      </c>
+      <c r="N97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98">
+        <v>21080621006</v>
+      </c>
+      <c r="D98" t="s">
+        <v>68</v>
+      </c>
+      <c r="E98">
+        <v>35.243745650000001</v>
+      </c>
+      <c r="F98">
+        <v>129.0194008</v>
+      </c>
+      <c r="G98">
+        <v>9</v>
+      </c>
+      <c r="H98">
+        <v>4</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>4</v>
+      </c>
+      <c r="K98">
+        <v>2</v>
+      </c>
+      <c r="L98">
+        <v>71</v>
+      </c>
+      <c r="M98" t="s">
+        <v>74</v>
+      </c>
+      <c r="N98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99">
+        <v>21080541024</v>
+      </c>
+      <c r="D99" t="s">
+        <v>68</v>
+      </c>
+      <c r="E99">
+        <v>35.250138339999999</v>
+      </c>
+      <c r="F99">
+        <v>129.01268669999999</v>
+      </c>
+      <c r="G99">
+        <v>5</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>2</v>
+      </c>
+      <c r="L99">
+        <v>31</v>
+      </c>
+      <c r="M99" t="s">
+        <v>74</v>
+      </c>
+      <c r="N99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>67</v>
+      </c>
+      <c r="C100">
+        <v>21080541026</v>
+      </c>
+      <c r="D100" t="s">
+        <v>68</v>
+      </c>
+      <c r="E100">
+        <v>35.25339898</v>
+      </c>
+      <c r="F100">
+        <v>129.014005</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>2</v>
+      </c>
+      <c r="L100">
+        <v>5</v>
+      </c>
+      <c r="M100" t="s">
+        <v>80</v>
+      </c>
+      <c r="N100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>50</v>
+      </c>
+      <c r="C101">
+        <v>21080541008</v>
+      </c>
+      <c r="D101" t="s">
+        <v>68</v>
+      </c>
+      <c r="E101">
+        <v>35.258557099999997</v>
+      </c>
+      <c r="F101">
+        <v>129.0151224</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>4</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>2</v>
+      </c>
+      <c r="L101">
+        <v>14</v>
+      </c>
+      <c r="M101" t="s">
+        <v>74</v>
+      </c>
+      <c r="N101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>31</v>
+      </c>
+      <c r="C102">
+        <v>21080541009</v>
+      </c>
+      <c r="D102" t="s">
+        <v>68</v>
+      </c>
+      <c r="E102">
+        <v>35.260474899999998</v>
+      </c>
+      <c r="F102">
+        <v>129.0164753</v>
+      </c>
+      <c r="G102">
+        <v>2</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>2</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>2</v>
+      </c>
+      <c r="L102">
+        <v>18</v>
+      </c>
+      <c r="M102" t="s">
+        <v>78</v>
+      </c>
+      <c r="N102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103">
+        <v>21080541011</v>
+      </c>
+      <c r="D103" t="s">
+        <v>68</v>
+      </c>
+      <c r="E103">
+        <v>35.267025240000002</v>
+      </c>
+      <c r="F103">
+        <v>129.0196177</v>
+      </c>
+      <c r="G103">
+        <v>3</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>3</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>2</v>
+      </c>
+      <c r="L103">
+        <v>26</v>
+      </c>
+      <c r="M103" t="s">
+        <v>74</v>
+      </c>
+      <c r="N103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104">
+        <v>21080541001</v>
+      </c>
+      <c r="D104" t="s">
+        <v>68</v>
+      </c>
+      <c r="E104">
+        <v>35.267668530000002</v>
+      </c>
+      <c r="F104">
+        <v>129.01797869999999</v>
+      </c>
+      <c r="G104">
+        <v>6</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>6</v>
+      </c>
+      <c r="J104">
+        <v>4</v>
+      </c>
+      <c r="K104">
+        <v>2</v>
+      </c>
+      <c r="L104">
+        <v>58</v>
+      </c>
+      <c r="M104" t="s">
+        <v>74</v>
+      </c>
+      <c r="N104">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:N1">
-    <sortState ref="A2:N71">
+    <sortState ref="A2:N104">
       <sortCondition ref="N1"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:N142">
-    <sortCondition ref="D2:D142"/>
-    <sortCondition ref="B2:B142"/>
+  <sortState ref="A2:N217">
+    <sortCondition ref="D2:D217"/>
+    <sortCondition ref="B2:B217"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Bus_route/res/2번노선(최종).xlsx
+++ b/Bus_route/res/2번노선(최종).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="71">
   <si>
     <t>NAME</t>
   </si>
@@ -174,6 +174,66 @@
   <si>
     <t>L</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙동초등학교</t>
+  </si>
+  <si>
+    <t>사하구청.당리역</t>
+  </si>
+  <si>
+    <t>괴정자유아파트</t>
+  </si>
+  <si>
+    <t>괴정역.괴정사거리</t>
+  </si>
+  <si>
+    <t>괴정사거리</t>
+  </si>
+  <si>
+    <t>구평고개</t>
+  </si>
+  <si>
+    <t>구평화신아파트</t>
+  </si>
+  <si>
+    <t>구평초등학교</t>
+  </si>
+  <si>
+    <t>YK스틸</t>
+  </si>
+  <si>
+    <t>영남중학교</t>
+  </si>
+  <si>
+    <t>신장림역</t>
+  </si>
+  <si>
+    <t>낫개역</t>
+  </si>
+  <si>
+    <t>다대포항역</t>
+  </si>
+  <si>
+    <t>다대농협</t>
+  </si>
+  <si>
+    <t>다대우신아파트</t>
+  </si>
+  <si>
+    <t>다대자유아파트</t>
+  </si>
+  <si>
+    <t>다대포해수욕장</t>
+  </si>
+  <si>
+    <t>다대회센터</t>
+  </si>
+  <si>
+    <t>다대포항역.다대수협</t>
+  </si>
+  <si>
+    <t>뉴코아아울렛</t>
   </si>
 </sst>
 </file>
@@ -245,19 +305,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -562,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:O92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="M64" sqref="M64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O79" sqref="O79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -945,7 +1002,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
@@ -992,7 +1049,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -1039,7 +1096,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -1084,47 +1141,47 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <v>16</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>21080521010</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>8089</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>35.198988370000002</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>128.99632790000001</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
         <v>2</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
         <v>2</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="2">
         <v>10</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="2" t="s">
         <v>47</v>
       </c>
       <c r="O12">
@@ -1133,7 +1190,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
@@ -1180,7 +1237,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
@@ -1225,56 +1282,56 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="4">
-        <v>80</v>
-      </c>
-      <c r="B15" s="5" t="s">
+    <row r="15" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>21150561008</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <v>15038</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="3">
         <v>35.17835951</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="3">
         <v>128.98832200000001</v>
       </c>
-      <c r="H15" s="5">
-        <v>4</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0</v>
-      </c>
-      <c r="J15" s="5">
-        <v>0</v>
-      </c>
-      <c r="K15" s="5">
-        <v>0</v>
-      </c>
-      <c r="L15" s="5">
+      <c r="H15" s="3">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
         <v>1</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="3">
         <v>21</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="N15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>37</v>
@@ -1321,7 +1378,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
@@ -1368,7 +1425,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1415,7 +1472,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
@@ -1462,7 +1519,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -1509,7 +1566,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1556,7 +1613,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>40</v>
@@ -1603,7 +1660,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
@@ -1650,7 +1707,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>41</v>
@@ -1697,7 +1754,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1744,7 +1801,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>38</v>
@@ -1791,7 +1848,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
@@ -1838,7 +1895,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
@@ -1885,7 +1942,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
@@ -1932,7 +1989,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
@@ -1979,7 +2036,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
@@ -2024,1317 +2081,2865 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
-        <v>69</v>
-      </c>
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32">
-        <v>21100571004</v>
-      </c>
-      <c r="D32">
-        <v>10081</v>
-      </c>
-      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="4">
+        <v>21100561012</v>
+      </c>
+      <c r="D32" s="4">
+        <v>10073</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F32">
-        <v>35.107663610000003</v>
-      </c>
-      <c r="G32">
-        <v>128.96776600000001</v>
-      </c>
-      <c r="H32">
-        <v>4</v>
-      </c>
-      <c r="I32">
-        <v>2</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>4</v>
-      </c>
-      <c r="M32">
-        <v>32</v>
-      </c>
-      <c r="N32" t="s">
-        <v>46</v>
+      <c r="F32" s="4">
+        <v>35.104466199999997</v>
+      </c>
+      <c r="G32" s="4">
+        <v>128.97043260000001</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
+        <v>4</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0</v>
+      </c>
+      <c r="L32" s="4">
+        <v>4</v>
+      </c>
+      <c r="M32" s="4">
+        <v>20</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="O32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
-        <v>70</v>
-      </c>
-      <c r="B33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33">
-        <v>21100571006</v>
-      </c>
-      <c r="D33">
-        <v>10090</v>
-      </c>
-      <c r="E33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="4">
+        <v>21100551007</v>
+      </c>
+      <c r="D33" s="4">
+        <v>10068</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F33">
-        <v>35.112603319999998</v>
-      </c>
-      <c r="G33">
-        <v>128.964507</v>
-      </c>
-      <c r="H33">
-        <v>5</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>4</v>
-      </c>
-      <c r="M33">
-        <v>29</v>
-      </c>
-      <c r="N33" t="s">
-        <v>46</v>
+      <c r="F33" s="4">
+        <v>35.102890119999998</v>
+      </c>
+      <c r="G33" s="4">
+        <v>128.9751842</v>
+      </c>
+      <c r="H33" s="4">
+        <v>3</v>
+      </c>
+      <c r="I33" s="4">
+        <v>2</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0</v>
+      </c>
+      <c r="L33" s="4">
+        <v>4</v>
+      </c>
+      <c r="M33" s="4">
+        <v>27</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="O33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
-        <v>71</v>
-      </c>
-      <c r="B34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34">
-        <v>21100571021</v>
-      </c>
-      <c r="D34">
-        <v>10093</v>
-      </c>
-      <c r="E34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="4">
+        <v>21100511001</v>
+      </c>
+      <c r="D34" s="4">
+        <v>10052</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F34">
-        <v>35.114654280000003</v>
-      </c>
-      <c r="G34">
-        <v>128.96262429999999</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>3</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>4</v>
-      </c>
-      <c r="M34">
-        <v>16</v>
-      </c>
-      <c r="N34" t="s">
-        <v>46</v>
+      <c r="F34" s="4">
+        <v>35.0990903</v>
+      </c>
+      <c r="G34" s="4">
+        <v>128.98954330000001</v>
+      </c>
+      <c r="H34" s="4">
+        <v>4</v>
+      </c>
+      <c r="I34" s="4">
+        <v>4</v>
+      </c>
+      <c r="J34" s="4">
+        <v>0</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0</v>
+      </c>
+      <c r="L34" s="4">
+        <v>4</v>
+      </c>
+      <c r="M34" s="4">
+        <v>40</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="O34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
-        <v>72</v>
-      </c>
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35">
-        <v>21150641003</v>
-      </c>
-      <c r="D35">
-        <v>15235</v>
-      </c>
-      <c r="E35" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35">
-        <v>35.128608909999997</v>
-      </c>
-      <c r="G35">
-        <v>128.9713419</v>
-      </c>
-      <c r="H35">
-        <v>3</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="4">
+        <v>50000002631</v>
+      </c>
+      <c r="D35" s="4">
+        <v>10291</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="4">
+        <v>35.099723679999997</v>
+      </c>
+      <c r="G35" s="4">
+        <v>128.99234390000001</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4">
         <v>1</v>
       </c>
-      <c r="M35">
-        <v>16</v>
-      </c>
-      <c r="N35" t="s">
-        <v>46</v>
+      <c r="J35" s="4">
+        <v>0</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0</v>
+      </c>
+      <c r="L35" s="4">
+        <v>4</v>
+      </c>
+      <c r="M35" s="4">
+        <v>8</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="O35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
-        <v>73</v>
-      </c>
-      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="4">
+        <v>21100511008</v>
+      </c>
+      <c r="D36" s="4">
+        <v>10029</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="4">
+        <v>35.099041819999997</v>
+      </c>
+      <c r="G36" s="4">
+        <v>128.9934538</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4">
+        <v>4</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0</v>
+      </c>
+      <c r="K36" s="4">
+        <v>0</v>
+      </c>
+      <c r="L36" s="4">
+        <v>4</v>
+      </c>
+      <c r="M36" s="4">
         <v>20</v>
       </c>
-      <c r="C36">
-        <v>21150641002</v>
-      </c>
-      <c r="D36">
-        <v>15237</v>
-      </c>
-      <c r="E36" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36">
-        <v>35.12837244</v>
-      </c>
-      <c r="G36">
-        <v>128.97286080000001</v>
-      </c>
-      <c r="H36">
-        <v>4</v>
-      </c>
-      <c r="I36">
-        <v>3</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>33</v>
-      </c>
-      <c r="N36" t="s">
-        <v>46</v>
+      <c r="N36" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="O36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
-        <v>74</v>
-      </c>
-      <c r="B37" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37">
-        <v>21150641001</v>
-      </c>
-      <c r="D37">
-        <v>15238</v>
-      </c>
-      <c r="E37" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37">
-        <v>35.128566409999998</v>
-      </c>
-      <c r="G37">
-        <v>128.97480229999999</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="4">
+        <v>21100641001</v>
+      </c>
+      <c r="D37" s="4">
+        <v>10014</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="4">
+        <v>35.088032669999997</v>
+      </c>
+      <c r="G37" s="4">
+        <v>128.99395490000001</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4">
         <v>2</v>
       </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>9</v>
-      </c>
-      <c r="N37" t="s">
-        <v>46</v>
+      <c r="J37" s="4">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0</v>
+      </c>
+      <c r="L37" s="4">
+        <v>4</v>
+      </c>
+      <c r="M37" s="4">
+        <v>12</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="O37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
-        <v>75</v>
-      </c>
-      <c r="B38" t="s">
         <v>36</v>
       </c>
-      <c r="C38">
-        <v>21150631003</v>
-      </c>
-      <c r="D38">
-        <v>15174</v>
-      </c>
-      <c r="E38" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38">
-        <v>35.138101349999999</v>
-      </c>
-      <c r="G38">
-        <v>128.9783142</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>4</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="M38">
-        <v>17</v>
-      </c>
-      <c r="N38" t="s">
-        <v>46</v>
+      <c r="B38" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="4">
+        <v>21100641008</v>
+      </c>
+      <c r="D38" s="4">
+        <v>10015</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="4">
+        <v>35.086411550000001</v>
+      </c>
+      <c r="G38" s="4">
+        <v>128.99311710000001</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
+        <v>3</v>
+      </c>
+      <c r="J38" s="4">
+        <v>2</v>
+      </c>
+      <c r="K38" s="4">
+        <v>2</v>
+      </c>
+      <c r="L38" s="4">
+        <v>4</v>
+      </c>
+      <c r="M38" s="4">
+        <v>26</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="O38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
-        <v>76</v>
-      </c>
-      <c r="B39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39">
-        <v>21150631001</v>
-      </c>
-      <c r="D39">
-        <v>15168</v>
-      </c>
-      <c r="E39" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39">
-        <v>35.13992837</v>
-      </c>
-      <c r="G39">
-        <v>128.98167480000001</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>2</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>9</v>
-      </c>
-      <c r="N39" t="s">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="4">
+        <v>21100641005</v>
+      </c>
+      <c r="D39" s="4">
+        <v>10016</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="4">
+        <v>35.085944609999999</v>
+      </c>
+      <c r="G39" s="4">
+        <v>128.9903625</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4">
+        <v>4</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <v>0</v>
+      </c>
+      <c r="L39" s="4">
+        <v>4</v>
+      </c>
+      <c r="M39" s="4">
+        <v>20</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="O39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
-        <v>77</v>
-      </c>
-      <c r="B40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40">
-        <v>21150631027</v>
-      </c>
-      <c r="D40">
-        <v>15165</v>
-      </c>
-      <c r="E40" t="s">
-        <v>45</v>
-      </c>
-      <c r="F40">
-        <v>35.141458460000003</v>
-      </c>
-      <c r="G40">
-        <v>128.98383200000001</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>10</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="M40">
-        <v>41</v>
-      </c>
-      <c r="N40" t="s">
-        <v>46</v>
+        <v>38</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="4">
+        <v>21100641006</v>
+      </c>
+      <c r="D40" s="4">
+        <v>10017</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="4">
+        <v>35.085833749999999</v>
+      </c>
+      <c r="G40" s="4">
+        <v>128.98615380000001</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+      <c r="I40" s="4">
+        <v>0</v>
+      </c>
+      <c r="J40" s="4">
+        <v>4</v>
+      </c>
+      <c r="K40" s="4">
+        <v>0</v>
+      </c>
+      <c r="L40" s="4">
+        <v>4</v>
+      </c>
+      <c r="M40" s="4">
+        <v>16</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="O40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
-        <v>78</v>
-      </c>
-      <c r="B41" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41">
-        <v>21150621005</v>
-      </c>
-      <c r="D41">
-        <v>15152</v>
-      </c>
-      <c r="E41" t="s">
-        <v>45</v>
-      </c>
-      <c r="F41">
-        <v>35.146450989999998</v>
-      </c>
-      <c r="G41">
-        <v>128.9949091</v>
-      </c>
-      <c r="H41">
-        <v>6</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="M41">
-        <v>31</v>
-      </c>
-      <c r="N41" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="4">
+        <v>21100611010</v>
+      </c>
+      <c r="D41" s="4">
+        <v>10165</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="4">
+        <v>35.078146390000001</v>
+      </c>
+      <c r="G41" s="4">
+        <v>128.97710989999999</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+      <c r="I41" s="4">
+        <v>2</v>
+      </c>
+      <c r="J41" s="4">
+        <v>0</v>
+      </c>
+      <c r="K41" s="4">
+        <v>0</v>
+      </c>
+      <c r="L41" s="4">
+        <v>4</v>
+      </c>
+      <c r="M41" s="4">
+        <v>12</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="O41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
-        <v>79</v>
-      </c>
-      <c r="B42" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42">
-        <v>21150621002</v>
-      </c>
-      <c r="D42">
-        <v>15124</v>
-      </c>
-      <c r="E42" t="s">
-        <v>45</v>
-      </c>
-      <c r="F42">
-        <v>35.149149420000001</v>
-      </c>
-      <c r="G42">
-        <v>129.0000063</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>4</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="M42">
-        <v>17</v>
-      </c>
-      <c r="N42" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="4">
+        <v>21100611015</v>
+      </c>
+      <c r="D42" s="4">
+        <v>10166</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="4">
+        <v>35.074878660000003</v>
+      </c>
+      <c r="G42" s="4">
+        <v>128.97650809999999</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4">
+        <v>3</v>
+      </c>
+      <c r="J42" s="4">
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
+        <v>0</v>
+      </c>
+      <c r="L42" s="4">
+        <v>4</v>
+      </c>
+      <c r="M42" s="4">
+        <v>16</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="O42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
-        <v>80</v>
-      </c>
-      <c r="B43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43">
-        <v>21150591015</v>
-      </c>
-      <c r="D43">
-        <v>15098</v>
-      </c>
-      <c r="E43" t="s">
-        <v>45</v>
-      </c>
-      <c r="F43">
-        <v>35.155194289999997</v>
-      </c>
-      <c r="G43">
-        <v>128.99192450000001</v>
-      </c>
-      <c r="H43">
-        <v>2</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>4</v>
-      </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="M43">
-        <v>19</v>
-      </c>
-      <c r="N43" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="4">
+        <v>21100631004</v>
+      </c>
+      <c r="D43" s="4">
+        <v>10173</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="4">
+        <v>35.06426621</v>
+      </c>
+      <c r="G43" s="4">
+        <v>128.97935050000001</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
+        <v>4</v>
+      </c>
+      <c r="K43" s="4">
+        <v>0</v>
+      </c>
+      <c r="L43" s="4">
+        <v>4</v>
+      </c>
+      <c r="M43" s="4">
+        <v>16</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="O43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
-        <v>81</v>
-      </c>
-      <c r="B44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44">
-        <v>21150571036</v>
-      </c>
-      <c r="D44">
-        <v>15254</v>
-      </c>
-      <c r="E44" t="s">
-        <v>45</v>
-      </c>
-      <c r="F44">
-        <v>35.160550819999997</v>
-      </c>
-      <c r="G44">
-        <v>128.98648779999999</v>
-      </c>
-      <c r="H44">
-        <v>4</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-      <c r="M44">
-        <v>21</v>
-      </c>
-      <c r="N44" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="4">
+        <v>21100621012</v>
+      </c>
+      <c r="D44" s="4">
+        <v>10183</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="4">
+        <v>35.05743966</v>
+      </c>
+      <c r="G44" s="4">
+        <v>128.97097289999999</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+      <c r="I44" s="4">
+        <v>5</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
+        <v>0</v>
+      </c>
+      <c r="L44" s="4">
+        <v>4</v>
+      </c>
+      <c r="M44" s="4">
+        <v>24</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="O44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
-        <v>82</v>
-      </c>
-      <c r="B45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45">
-        <v>21150551002</v>
-      </c>
-      <c r="D45">
-        <v>15054</v>
-      </c>
-      <c r="E45" t="s">
-        <v>45</v>
-      </c>
-      <c r="F45">
-        <v>35.171034910000003</v>
-      </c>
-      <c r="G45">
-        <v>128.98307980000001</v>
-      </c>
-      <c r="H45">
-        <v>3</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>1</v>
-      </c>
-      <c r="M45">
-        <v>16</v>
-      </c>
-      <c r="N45" t="s">
-        <v>50</v>
+        <v>43</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="4">
+        <v>50000002426</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="4">
+        <v>35.056410319999998</v>
+      </c>
+      <c r="G45" s="4">
+        <v>128.97042920000001</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0</v>
+      </c>
+      <c r="I45" s="4">
+        <v>4</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0</v>
+      </c>
+      <c r="K45" s="4">
+        <v>0</v>
+      </c>
+      <c r="L45" s="4">
+        <v>4</v>
+      </c>
+      <c r="M45" s="4">
+        <v>20</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="O45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="4">
-        <v>54</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="5">
-        <v>21150561013</v>
-      </c>
-      <c r="D46" s="5">
-        <v>15037</v>
-      </c>
-      <c r="E46" s="5" t="s">
+    <row r="46" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="4">
+        <v>21100621023</v>
+      </c>
+      <c r="D46" s="4">
+        <v>10188</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" s="4">
+        <v>35.05461949</v>
+      </c>
+      <c r="G46" s="4">
+        <v>128.97044700000001</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46" s="4">
+        <v>1</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0</v>
+      </c>
+      <c r="K46" s="4">
+        <v>0</v>
+      </c>
+      <c r="L46" s="4">
+        <v>4</v>
+      </c>
+      <c r="M46" s="4">
+        <v>8</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O46">
         <v>45</v>
       </c>
-      <c r="F46" s="5">
-        <v>35.17915576</v>
-      </c>
-      <c r="G46" s="5">
-        <v>128.98867619999999</v>
-      </c>
-      <c r="H46" s="5">
-        <v>5</v>
-      </c>
-      <c r="I46" s="5">
-        <v>0</v>
-      </c>
-      <c r="J46" s="5">
-        <v>0</v>
-      </c>
-      <c r="K46" s="5">
-        <v>0</v>
-      </c>
-      <c r="L46" s="5">
-        <v>1</v>
-      </c>
-      <c r="M46" s="5">
-        <v>26</v>
-      </c>
-      <c r="N46" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O46" s="5">
+    </row>
+    <row r="47" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A47" s="1">
-        <v>84</v>
-      </c>
-      <c r="B47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47">
-        <v>21150531007</v>
-      </c>
-      <c r="D47">
-        <v>15027</v>
-      </c>
-      <c r="E47" t="s">
-        <v>45</v>
-      </c>
-      <c r="F47">
-        <v>35.183670139999997</v>
-      </c>
-      <c r="G47">
-        <v>128.99009520000001</v>
-      </c>
-      <c r="H47">
-        <v>4</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-      <c r="M47">
-        <v>21</v>
-      </c>
-      <c r="N47" t="s">
-        <v>46</v>
+      <c r="B47" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="4">
+        <v>21100621013</v>
+      </c>
+      <c r="D47" s="4">
+        <v>10189</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" s="4">
+        <v>35.051661670000001</v>
+      </c>
+      <c r="G47" s="4">
+        <v>128.9706535</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+      <c r="I47" s="4">
+        <v>8</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
+        <v>0</v>
+      </c>
+      <c r="L47" s="4">
+        <v>4</v>
+      </c>
+      <c r="M47" s="4">
+        <v>36</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="O47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
-        <v>85</v>
-      </c>
-      <c r="B48" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48">
-        <v>21150531016</v>
-      </c>
-      <c r="D48">
-        <v>15019</v>
-      </c>
-      <c r="E48" t="s">
-        <v>45</v>
-      </c>
-      <c r="F48">
-        <v>35.187353520000002</v>
-      </c>
-      <c r="G48">
-        <v>128.99097499999999</v>
-      </c>
-      <c r="H48">
-        <v>3</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>1</v>
-      </c>
-      <c r="M48">
-        <v>16</v>
-      </c>
-      <c r="N48" t="s">
         <v>46</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="4">
+        <v>21100621014</v>
+      </c>
+      <c r="D48" s="4">
+        <v>10193</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" s="4">
+        <v>35.049039319999999</v>
+      </c>
+      <c r="G48" s="4">
+        <v>128.96972389999999</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0</v>
+      </c>
+      <c r="J48" s="4">
+        <v>0</v>
+      </c>
+      <c r="K48" s="4">
+        <v>2</v>
+      </c>
+      <c r="L48" s="4">
+        <v>4</v>
+      </c>
+      <c r="M48" s="4">
+        <v>8</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="O48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
-        <v>86</v>
-      </c>
-      <c r="B49" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49">
-        <v>21080521012</v>
-      </c>
-      <c r="D49">
-        <v>8090</v>
-      </c>
-      <c r="E49" t="s">
-        <v>43</v>
-      </c>
-      <c r="F49">
-        <v>35.198750920000002</v>
-      </c>
-      <c r="G49">
-        <v>128.99658120000001</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>3</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>2</v>
-      </c>
-      <c r="M49">
-        <v>14</v>
-      </c>
-      <c r="N49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="4">
+        <v>21100621020</v>
+      </c>
+      <c r="D49" s="4">
+        <v>10192</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="4">
+        <v>35.049064909999998</v>
+      </c>
+      <c r="G49" s="4">
+        <v>128.97009439999999</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0</v>
+      </c>
+      <c r="I49" s="4">
+        <v>0</v>
+      </c>
+      <c r="J49" s="4">
+        <v>0</v>
+      </c>
+      <c r="K49" s="4">
+        <v>1</v>
+      </c>
+      <c r="L49" s="4">
+        <v>4</v>
+      </c>
+      <c r="M49" s="4">
+        <v>6</v>
+      </c>
+      <c r="N49" s="4" t="s">
         <v>46</v>
       </c>
       <c r="O49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
-        <v>92</v>
-      </c>
-      <c r="B50" t="s">
-        <v>30</v>
-      </c>
-      <c r="C50">
-        <v>21080571013</v>
-      </c>
-      <c r="D50">
-        <v>8064</v>
-      </c>
-      <c r="E50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F50">
-        <v>35.211983830000001</v>
-      </c>
-      <c r="G50">
-        <v>129.00477179999999</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>4</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>2</v>
-      </c>
-      <c r="M50">
-        <v>18</v>
-      </c>
-      <c r="N50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="4">
+        <v>21100621024</v>
+      </c>
+      <c r="D50" s="4">
+        <v>10190</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" s="4">
+        <v>35.051573449999999</v>
+      </c>
+      <c r="G50" s="4">
+        <v>128.97096479999999</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0</v>
+      </c>
+      <c r="I50" s="4">
+        <v>9</v>
+      </c>
+      <c r="J50" s="4">
+        <v>0</v>
+      </c>
+      <c r="K50" s="4">
+        <v>0</v>
+      </c>
+      <c r="L50" s="4">
+        <v>4</v>
+      </c>
+      <c r="M50" s="4">
+        <v>40</v>
+      </c>
+      <c r="N50" s="4" t="s">
         <v>46</v>
       </c>
       <c r="O50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
-        <v>93</v>
-      </c>
-      <c r="B51" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51">
-        <v>21080551004</v>
-      </c>
-      <c r="D51">
-        <v>8057</v>
-      </c>
-      <c r="E51" t="s">
-        <v>43</v>
-      </c>
-      <c r="F51">
-        <v>35.22516212</v>
-      </c>
-      <c r="G51">
-        <v>129.01012370000001</v>
-      </c>
-      <c r="H51">
-        <v>3</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="4">
+        <v>21100621004</v>
+      </c>
+      <c r="D51" s="4">
+        <v>10186</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" s="4">
+        <v>35.055064829999999</v>
+      </c>
+      <c r="G51" s="4">
+        <v>128.97169049999999</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0</v>
+      </c>
+      <c r="I51" s="4">
         <v>2</v>
       </c>
-      <c r="M51">
-        <v>17</v>
-      </c>
-      <c r="N51" t="s">
+      <c r="J51" s="4">
+        <v>0</v>
+      </c>
+      <c r="K51" s="4">
+        <v>0</v>
+      </c>
+      <c r="L51" s="4">
+        <v>4</v>
+      </c>
+      <c r="M51" s="4">
+        <v>12</v>
+      </c>
+      <c r="N51" s="4" t="s">
         <v>46</v>
       </c>
       <c r="O51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
-        <v>94</v>
-      </c>
-      <c r="B52" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52">
-        <v>21080631003</v>
-      </c>
-      <c r="D52">
-        <v>8051</v>
-      </c>
-      <c r="E52" t="s">
-        <v>43</v>
-      </c>
-      <c r="F52">
-        <v>35.231688290000001</v>
-      </c>
-      <c r="G52">
-        <v>129.01304099999999</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>4</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>2</v>
-      </c>
-      <c r="M52">
-        <v>18</v>
-      </c>
-      <c r="N52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="4">
+        <v>21100621003</v>
+      </c>
+      <c r="D52" s="4">
+        <v>10185</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" s="4">
+        <v>35.056047270000001</v>
+      </c>
+      <c r="G52" s="4">
+        <v>128.97165179999999</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0</v>
+      </c>
+      <c r="I52" s="4">
+        <v>4</v>
+      </c>
+      <c r="J52" s="4">
+        <v>0</v>
+      </c>
+      <c r="K52" s="4">
+        <v>0</v>
+      </c>
+      <c r="L52" s="4">
+        <v>4</v>
+      </c>
+      <c r="M52" s="4">
+        <v>20</v>
+      </c>
+      <c r="N52" s="4" t="s">
         <v>46</v>
       </c>
       <c r="O52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
-        <v>96</v>
-      </c>
-      <c r="B53" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53">
-        <v>21080621006</v>
-      </c>
-      <c r="D53">
-        <v>8037</v>
-      </c>
-      <c r="E53" t="s">
-        <v>43</v>
-      </c>
-      <c r="F53">
-        <v>35.243745650000001</v>
-      </c>
-      <c r="G53">
-        <v>129.0194008</v>
-      </c>
-      <c r="H53">
-        <v>9</v>
-      </c>
-      <c r="I53">
-        <v>4</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>4</v>
-      </c>
-      <c r="L53">
-        <v>2</v>
-      </c>
-      <c r="M53">
-        <v>71</v>
-      </c>
-      <c r="N53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="4">
+        <v>21100631003</v>
+      </c>
+      <c r="D53" s="4">
+        <v>10174</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" s="4">
+        <v>35.064303940000002</v>
+      </c>
+      <c r="G53" s="4">
+        <v>128.97966729999999</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0</v>
+      </c>
+      <c r="I53" s="4">
+        <v>0</v>
+      </c>
+      <c r="J53" s="4">
+        <v>3</v>
+      </c>
+      <c r="K53" s="4">
+        <v>0</v>
+      </c>
+      <c r="L53" s="4">
+        <v>4</v>
+      </c>
+      <c r="M53" s="4">
+        <v>13</v>
+      </c>
+      <c r="N53" s="4" t="s">
         <v>46</v>
       </c>
       <c r="O53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
-        <v>97</v>
-      </c>
-      <c r="B54" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54">
-        <v>21080541024</v>
-      </c>
-      <c r="D54">
-        <v>8029</v>
-      </c>
-      <c r="E54" t="s">
-        <v>43</v>
-      </c>
-      <c r="F54">
-        <v>35.250138339999999</v>
-      </c>
-      <c r="G54">
-        <v>129.01268669999999</v>
-      </c>
-      <c r="H54">
-        <v>5</v>
-      </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>2</v>
-      </c>
-      <c r="M54">
-        <v>31</v>
-      </c>
-      <c r="N54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="4">
+        <v>21100611011</v>
+      </c>
+      <c r="D54" s="4">
+        <v>10167</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" s="4">
+        <v>35.075000289999998</v>
+      </c>
+      <c r="G54" s="4">
+        <v>128.9768694</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0</v>
+      </c>
+      <c r="I54" s="4">
+        <v>4</v>
+      </c>
+      <c r="J54" s="4">
+        <v>0</v>
+      </c>
+      <c r="K54" s="4">
+        <v>0</v>
+      </c>
+      <c r="L54" s="4">
+        <v>4</v>
+      </c>
+      <c r="M54" s="4">
+        <v>20</v>
+      </c>
+      <c r="N54" s="4" t="s">
         <v>46</v>
       </c>
       <c r="O54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
-        <v>98</v>
-      </c>
-      <c r="B55" t="s">
-        <v>42</v>
-      </c>
-      <c r="C55">
-        <v>21080541026</v>
-      </c>
-      <c r="D55">
-        <v>8023</v>
-      </c>
-      <c r="E55" t="s">
-        <v>43</v>
-      </c>
-      <c r="F55">
-        <v>35.25339898</v>
-      </c>
-      <c r="G55">
-        <v>129.014005</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>1</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>2</v>
-      </c>
-      <c r="M55">
-        <v>5</v>
-      </c>
-      <c r="N55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="4">
+        <v>21100611007</v>
+      </c>
+      <c r="D55" s="4">
+        <v>10164</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" s="4">
+        <v>35.07836399</v>
+      </c>
+      <c r="G55" s="4">
+        <v>128.9774625</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0</v>
+      </c>
+      <c r="I55" s="4">
+        <v>3</v>
+      </c>
+      <c r="J55" s="4">
+        <v>0</v>
+      </c>
+      <c r="K55" s="4">
+        <v>0</v>
+      </c>
+      <c r="L55" s="4">
+        <v>4</v>
+      </c>
+      <c r="M55" s="4">
+        <v>16</v>
+      </c>
+      <c r="N55" s="4" t="s">
         <v>46</v>
       </c>
       <c r="O55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
-        <v>99</v>
-      </c>
-      <c r="B56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C56">
-        <v>21080541008</v>
-      </c>
-      <c r="D56">
-        <v>8015</v>
-      </c>
-      <c r="E56" t="s">
-        <v>43</v>
-      </c>
-      <c r="F56">
-        <v>35.258557099999997</v>
-      </c>
-      <c r="G56">
-        <v>129.0151224</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>4</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>2</v>
-      </c>
-      <c r="M56">
-        <v>14</v>
-      </c>
-      <c r="N56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="4">
+        <v>21100641004</v>
+      </c>
+      <c r="D56" s="4">
+        <v>10018</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" s="4">
+        <v>35.085585870000003</v>
+      </c>
+      <c r="G56" s="4">
+        <v>128.98642340000001</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0</v>
+      </c>
+      <c r="I56" s="4">
+        <v>0</v>
+      </c>
+      <c r="J56" s="4">
+        <v>5</v>
+      </c>
+      <c r="K56" s="4">
+        <v>0</v>
+      </c>
+      <c r="L56" s="4">
+        <v>4</v>
+      </c>
+      <c r="M56" s="4">
+        <v>19</v>
+      </c>
+      <c r="N56" s="4" t="s">
         <v>46</v>
       </c>
       <c r="O56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
-        <v>100</v>
-      </c>
-      <c r="B57" t="s">
-        <v>26</v>
-      </c>
-      <c r="C57">
-        <v>21080541009</v>
-      </c>
-      <c r="D57">
-        <v>8012</v>
-      </c>
-      <c r="E57" t="s">
-        <v>43</v>
-      </c>
-      <c r="F57">
-        <v>35.260474899999998</v>
-      </c>
-      <c r="G57">
-        <v>129.0164753</v>
-      </c>
-      <c r="H57">
-        <v>2</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>2</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>2</v>
-      </c>
-      <c r="M57">
-        <v>18</v>
-      </c>
-      <c r="N57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="4">
+        <v>21100641003</v>
+      </c>
+      <c r="D57" s="4">
+        <v>10019</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" s="4">
+        <v>35.085454810000002</v>
+      </c>
+      <c r="G57" s="4">
+        <v>128.99057920000001</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0</v>
+      </c>
+      <c r="I57" s="4">
+        <v>4</v>
+      </c>
+      <c r="J57" s="4">
+        <v>0</v>
+      </c>
+      <c r="K57" s="4">
+        <v>0</v>
+      </c>
+      <c r="L57" s="4">
+        <v>4</v>
+      </c>
+      <c r="M57" s="4">
+        <v>20</v>
+      </c>
+      <c r="N57" s="4" t="s">
         <v>46</v>
       </c>
       <c r="O57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
-        <v>101</v>
-      </c>
-      <c r="B58" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58">
-        <v>21080541011</v>
-      </c>
-      <c r="D58">
-        <v>8002</v>
-      </c>
-      <c r="E58" t="s">
-        <v>43</v>
-      </c>
-      <c r="F58">
-        <v>35.267025240000002</v>
-      </c>
-      <c r="G58">
-        <v>129.0196177</v>
-      </c>
-      <c r="H58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="4">
+        <v>21100641007</v>
+      </c>
+      <c r="D58" s="4">
+        <v>10020</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" s="4">
+        <v>35.0863929</v>
+      </c>
+      <c r="G58" s="4">
+        <v>128.99342909999999</v>
+      </c>
+      <c r="H58" s="4">
+        <v>0</v>
+      </c>
+      <c r="I58" s="4">
         <v>3</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>3</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
+      <c r="J58" s="4">
         <v>2</v>
       </c>
-      <c r="M58">
+      <c r="K58" s="4">
+        <v>2</v>
+      </c>
+      <c r="L58" s="4">
+        <v>4</v>
+      </c>
+      <c r="M58" s="4">
         <v>26</v>
       </c>
-      <c r="N58" t="s">
+      <c r="N58" s="4" t="s">
         <v>46</v>
       </c>
       <c r="O58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
-        <v>102</v>
-      </c>
-      <c r="B59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59">
-        <v>21080541001</v>
-      </c>
-      <c r="E59" t="s">
-        <v>43</v>
-      </c>
-      <c r="F59">
-        <v>35.267668530000002</v>
-      </c>
-      <c r="G59">
-        <v>129.01797869999999</v>
-      </c>
-      <c r="H59">
-        <v>6</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>6</v>
-      </c>
-      <c r="K59">
-        <v>4</v>
-      </c>
-      <c r="L59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="4">
+        <v>21100641002</v>
+      </c>
+      <c r="D59" s="4">
+        <v>10021</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" s="4">
+        <v>35.087972890000003</v>
+      </c>
+      <c r="G59" s="4">
+        <v>128.9942619</v>
+      </c>
+      <c r="H59" s="4">
+        <v>0</v>
+      </c>
+      <c r="I59" s="4">
         <v>2</v>
       </c>
-      <c r="M59">
-        <v>58</v>
-      </c>
-      <c r="N59" t="s">
+      <c r="J59" s="4">
+        <v>0</v>
+      </c>
+      <c r="K59" s="4">
+        <v>0</v>
+      </c>
+      <c r="L59" s="4">
+        <v>4</v>
+      </c>
+      <c r="M59" s="4">
+        <v>12</v>
+      </c>
+      <c r="N59" s="4" t="s">
         <v>46</v>
       </c>
       <c r="O59">
         <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="4">
+        <v>21100531007</v>
+      </c>
+      <c r="D60" s="4">
+        <v>10028</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" s="4">
+        <v>35.098044360000003</v>
+      </c>
+      <c r="G60" s="4">
+        <v>128.9941039</v>
+      </c>
+      <c r="H60" s="4">
+        <v>0</v>
+      </c>
+      <c r="I60" s="4">
+        <v>4</v>
+      </c>
+      <c r="J60" s="4">
+        <v>0</v>
+      </c>
+      <c r="K60" s="4">
+        <v>0</v>
+      </c>
+      <c r="L60" s="4">
+        <v>4</v>
+      </c>
+      <c r="M60" s="4">
+        <v>20</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="4">
+        <v>21100511003</v>
+      </c>
+      <c r="D61" s="4">
+        <v>10050</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" s="4">
+        <v>35.100026329999999</v>
+      </c>
+      <c r="G61" s="4">
+        <v>128.99222560000001</v>
+      </c>
+      <c r="H61" s="4">
+        <v>0</v>
+      </c>
+      <c r="I61" s="4">
+        <v>1</v>
+      </c>
+      <c r="J61" s="4">
+        <v>0</v>
+      </c>
+      <c r="K61" s="4">
+        <v>0</v>
+      </c>
+      <c r="L61" s="4">
+        <v>4</v>
+      </c>
+      <c r="M61" s="4">
+        <v>8</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62" s="4">
+        <v>21100511002</v>
+      </c>
+      <c r="D62" s="4">
+        <v>10051</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" s="4">
+        <v>35.099373180000001</v>
+      </c>
+      <c r="G62" s="4">
+        <v>128.9886722</v>
+      </c>
+      <c r="H62" s="4">
+        <v>3</v>
+      </c>
+      <c r="I62" s="4">
+        <v>2</v>
+      </c>
+      <c r="J62" s="4">
+        <v>0</v>
+      </c>
+      <c r="K62" s="4">
+        <v>0</v>
+      </c>
+      <c r="L62" s="4">
+        <v>4</v>
+      </c>
+      <c r="M62" s="4">
+        <v>27</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="4">
+        <v>21100551005</v>
+      </c>
+      <c r="D63" s="4">
+        <v>10070</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" s="4">
+        <v>35.10358746</v>
+      </c>
+      <c r="G63" s="4">
+        <v>128.9741856</v>
+      </c>
+      <c r="H63" s="4">
+        <v>6</v>
+      </c>
+      <c r="I63" s="4">
+        <v>0</v>
+      </c>
+      <c r="J63" s="4">
+        <v>2</v>
+      </c>
+      <c r="K63" s="4">
+        <v>0</v>
+      </c>
+      <c r="L63" s="4">
+        <v>4</v>
+      </c>
+      <c r="M63" s="4">
+        <v>40</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="4">
+        <v>21100551004</v>
+      </c>
+      <c r="D64" s="4">
+        <v>10072</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" s="4">
+        <v>35.104874410000001</v>
+      </c>
+      <c r="G64" s="4">
+        <v>128.9703232</v>
+      </c>
+      <c r="H64" s="4">
+        <v>0</v>
+      </c>
+      <c r="I64" s="4">
+        <v>7</v>
+      </c>
+      <c r="J64" s="4">
+        <v>0</v>
+      </c>
+      <c r="K64" s="4">
+        <v>0</v>
+      </c>
+      <c r="L64" s="4">
+        <v>4</v>
+      </c>
+      <c r="M64" s="4">
+        <v>32</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65">
+        <v>21100571004</v>
+      </c>
+      <c r="D65">
+        <v>10081</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65">
+        <v>35.107663610000003</v>
+      </c>
+      <c r="G65">
+        <v>128.96776600000001</v>
+      </c>
+      <c r="H65">
+        <v>4</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>4</v>
+      </c>
+      <c r="M65">
+        <v>32</v>
+      </c>
+      <c r="N65" t="s">
+        <v>46</v>
+      </c>
+      <c r="O65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66">
+        <v>21100571006</v>
+      </c>
+      <c r="D66">
+        <v>10090</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66">
+        <v>35.112603319999998</v>
+      </c>
+      <c r="G66">
+        <v>128.964507</v>
+      </c>
+      <c r="H66">
+        <v>5</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>4</v>
+      </c>
+      <c r="M66">
+        <v>29</v>
+      </c>
+      <c r="N66" t="s">
+        <v>46</v>
+      </c>
+      <c r="O66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67">
+        <v>21100571021</v>
+      </c>
+      <c r="D67">
+        <v>10093</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67">
+        <v>35.114654280000003</v>
+      </c>
+      <c r="G67">
+        <v>128.96262429999999</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>3</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>4</v>
+      </c>
+      <c r="M67">
+        <v>16</v>
+      </c>
+      <c r="N67" t="s">
+        <v>46</v>
+      </c>
+      <c r="O67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68">
+        <v>21150641003</v>
+      </c>
+      <c r="D68">
+        <v>15235</v>
+      </c>
+      <c r="E68" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68">
+        <v>35.128608909999997</v>
+      </c>
+      <c r="G68">
+        <v>128.9713419</v>
+      </c>
+      <c r="H68">
+        <v>3</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>16</v>
+      </c>
+      <c r="N68" t="s">
+        <v>46</v>
+      </c>
+      <c r="O68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69">
+        <v>21150641002</v>
+      </c>
+      <c r="D69">
+        <v>15237</v>
+      </c>
+      <c r="E69" t="s">
+        <v>45</v>
+      </c>
+      <c r="F69">
+        <v>35.12837244</v>
+      </c>
+      <c r="G69">
+        <v>128.97286080000001</v>
+      </c>
+      <c r="H69">
+        <v>4</v>
+      </c>
+      <c r="I69">
+        <v>3</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>33</v>
+      </c>
+      <c r="N69" t="s">
+        <v>46</v>
+      </c>
+      <c r="O69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>41</v>
+      </c>
+      <c r="C70">
+        <v>21150641001</v>
+      </c>
+      <c r="D70">
+        <v>15238</v>
+      </c>
+      <c r="E70" t="s">
+        <v>45</v>
+      </c>
+      <c r="F70">
+        <v>35.128566409999998</v>
+      </c>
+      <c r="G70">
+        <v>128.97480229999999</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>9</v>
+      </c>
+      <c r="N70" t="s">
+        <v>46</v>
+      </c>
+      <c r="O70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>36</v>
+      </c>
+      <c r="C71">
+        <v>21150631003</v>
+      </c>
+      <c r="D71">
+        <v>15174</v>
+      </c>
+      <c r="E71" t="s">
+        <v>45</v>
+      </c>
+      <c r="F71">
+        <v>35.138101349999999</v>
+      </c>
+      <c r="G71">
+        <v>128.9783142</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>4</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>17</v>
+      </c>
+      <c r="N71" t="s">
+        <v>46</v>
+      </c>
+      <c r="O71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72">
+        <v>21150631001</v>
+      </c>
+      <c r="D72">
+        <v>15168</v>
+      </c>
+      <c r="E72" t="s">
+        <v>45</v>
+      </c>
+      <c r="F72">
+        <v>35.13992837</v>
+      </c>
+      <c r="G72">
+        <v>128.98167480000001</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>9</v>
+      </c>
+      <c r="N72" t="s">
+        <v>46</v>
+      </c>
+      <c r="O72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73">
+        <v>21150631027</v>
+      </c>
+      <c r="D73">
+        <v>15165</v>
+      </c>
+      <c r="E73" t="s">
+        <v>45</v>
+      </c>
+      <c r="F73">
+        <v>35.141458460000003</v>
+      </c>
+      <c r="G73">
+        <v>128.98383200000001</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>10</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>41</v>
+      </c>
+      <c r="N73" t="s">
+        <v>46</v>
+      </c>
+      <c r="O73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74">
+        <v>21150621005</v>
+      </c>
+      <c r="D74">
+        <v>15152</v>
+      </c>
+      <c r="E74" t="s">
+        <v>45</v>
+      </c>
+      <c r="F74">
+        <v>35.146450989999998</v>
+      </c>
+      <c r="G74">
+        <v>128.9949091</v>
+      </c>
+      <c r="H74">
+        <v>6</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>31</v>
+      </c>
+      <c r="N74" t="s">
+        <v>46</v>
+      </c>
+      <c r="O74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C75">
+        <v>21150621002</v>
+      </c>
+      <c r="D75">
+        <v>15124</v>
+      </c>
+      <c r="E75" t="s">
+        <v>45</v>
+      </c>
+      <c r="F75">
+        <v>35.149149420000001</v>
+      </c>
+      <c r="G75">
+        <v>129.0000063</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>4</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>17</v>
+      </c>
+      <c r="N75" t="s">
+        <v>46</v>
+      </c>
+      <c r="O75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76">
+        <v>21150591015</v>
+      </c>
+      <c r="D76">
+        <v>15098</v>
+      </c>
+      <c r="E76" t="s">
+        <v>45</v>
+      </c>
+      <c r="F76">
+        <v>35.155194289999997</v>
+      </c>
+      <c r="G76">
+        <v>128.99192450000001</v>
+      </c>
+      <c r="H76">
+        <v>2</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>4</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>19</v>
+      </c>
+      <c r="N76" t="s">
+        <v>46</v>
+      </c>
+      <c r="O76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77">
+        <v>21150571036</v>
+      </c>
+      <c r="D77">
+        <v>15254</v>
+      </c>
+      <c r="E77" t="s">
+        <v>45</v>
+      </c>
+      <c r="F77">
+        <v>35.160550819999997</v>
+      </c>
+      <c r="G77">
+        <v>128.98648779999999</v>
+      </c>
+      <c r="H77">
+        <v>4</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>21</v>
+      </c>
+      <c r="N77" t="s">
+        <v>46</v>
+      </c>
+      <c r="O77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78">
+        <v>21150551002</v>
+      </c>
+      <c r="D78">
+        <v>15054</v>
+      </c>
+      <c r="E78" t="s">
+        <v>45</v>
+      </c>
+      <c r="F78">
+        <v>35.171034910000003</v>
+      </c>
+      <c r="G78">
+        <v>128.98307980000001</v>
+      </c>
+      <c r="H78">
+        <v>3</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>16</v>
+      </c>
+      <c r="N78" t="s">
+        <v>50</v>
+      </c>
+      <c r="O78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="3">
+        <v>21150561013</v>
+      </c>
+      <c r="D79" s="3">
+        <v>15037</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F79" s="3">
+        <v>35.17915576</v>
+      </c>
+      <c r="G79" s="3">
+        <v>128.98867619999999</v>
+      </c>
+      <c r="H79" s="3">
+        <v>5</v>
+      </c>
+      <c r="I79" s="3">
+        <v>0</v>
+      </c>
+      <c r="J79" s="3">
+        <v>0</v>
+      </c>
+      <c r="K79" s="3">
+        <v>0</v>
+      </c>
+      <c r="L79" s="3">
+        <v>1</v>
+      </c>
+      <c r="M79" s="3">
+        <v>26</v>
+      </c>
+      <c r="N79" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>32</v>
+      </c>
+      <c r="C80">
+        <v>21150531007</v>
+      </c>
+      <c r="D80">
+        <v>15027</v>
+      </c>
+      <c r="E80" t="s">
+        <v>45</v>
+      </c>
+      <c r="F80">
+        <v>35.183670139999997</v>
+      </c>
+      <c r="G80">
+        <v>128.99009520000001</v>
+      </c>
+      <c r="H80">
+        <v>4</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>21</v>
+      </c>
+      <c r="N80" t="s">
+        <v>46</v>
+      </c>
+      <c r="O80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>31</v>
+      </c>
+      <c r="C81">
+        <v>21150531016</v>
+      </c>
+      <c r="D81">
+        <v>15019</v>
+      </c>
+      <c r="E81" t="s">
+        <v>45</v>
+      </c>
+      <c r="F81">
+        <v>35.187353520000002</v>
+      </c>
+      <c r="G81">
+        <v>128.99097499999999</v>
+      </c>
+      <c r="H81">
+        <v>3</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>16</v>
+      </c>
+      <c r="N81" t="s">
+        <v>46</v>
+      </c>
+      <c r="O81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>39</v>
+      </c>
+      <c r="C82">
+        <v>21080521012</v>
+      </c>
+      <c r="D82">
+        <v>8090</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82">
+        <v>35.198750920000002</v>
+      </c>
+      <c r="G82">
+        <v>128.99658120000001</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>3</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>2</v>
+      </c>
+      <c r="M82">
+        <v>14</v>
+      </c>
+      <c r="N82" t="s">
+        <v>46</v>
+      </c>
+      <c r="O82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>30</v>
+      </c>
+      <c r="C83">
+        <v>21080571013</v>
+      </c>
+      <c r="D83">
+        <v>8064</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83">
+        <v>35.211983830000001</v>
+      </c>
+      <c r="G83">
+        <v>129.00477179999999</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>4</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>2</v>
+      </c>
+      <c r="M83">
+        <v>18</v>
+      </c>
+      <c r="N83" t="s">
+        <v>46</v>
+      </c>
+      <c r="O83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>29</v>
+      </c>
+      <c r="C84">
+        <v>21080551004</v>
+      </c>
+      <c r="D84">
+        <v>8057</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84">
+        <v>35.22516212</v>
+      </c>
+      <c r="G84">
+        <v>129.01012370000001</v>
+      </c>
+      <c r="H84">
+        <v>3</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>2</v>
+      </c>
+      <c r="M84">
+        <v>17</v>
+      </c>
+      <c r="N84" t="s">
+        <v>46</v>
+      </c>
+      <c r="O84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85">
+        <v>21080631003</v>
+      </c>
+      <c r="D85">
+        <v>8051</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85">
+        <v>35.231688290000001</v>
+      </c>
+      <c r="G85">
+        <v>129.01304099999999</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>4</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>2</v>
+      </c>
+      <c r="M85">
+        <v>18</v>
+      </c>
+      <c r="N85" t="s">
+        <v>46</v>
+      </c>
+      <c r="O85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86">
+        <v>21080621006</v>
+      </c>
+      <c r="D86">
+        <v>8037</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86">
+        <v>35.243745650000001</v>
+      </c>
+      <c r="G86">
+        <v>129.0194008</v>
+      </c>
+      <c r="H86">
+        <v>9</v>
+      </c>
+      <c r="I86">
+        <v>4</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>4</v>
+      </c>
+      <c r="L86">
+        <v>2</v>
+      </c>
+      <c r="M86">
+        <v>71</v>
+      </c>
+      <c r="N86" t="s">
+        <v>46</v>
+      </c>
+      <c r="O86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87">
+        <v>21080541024</v>
+      </c>
+      <c r="D87">
+        <v>8029</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87">
+        <v>35.250138339999999</v>
+      </c>
+      <c r="G87">
+        <v>129.01268669999999</v>
+      </c>
+      <c r="H87">
+        <v>5</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>2</v>
+      </c>
+      <c r="M87">
+        <v>31</v>
+      </c>
+      <c r="N87" t="s">
+        <v>46</v>
+      </c>
+      <c r="O87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>42</v>
+      </c>
+      <c r="C88">
+        <v>21080541026</v>
+      </c>
+      <c r="D88">
+        <v>8023</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88">
+        <v>35.25339898</v>
+      </c>
+      <c r="G88">
+        <v>129.014005</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>2</v>
+      </c>
+      <c r="M88">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>46</v>
+      </c>
+      <c r="O88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>35</v>
+      </c>
+      <c r="C89">
+        <v>21080541008</v>
+      </c>
+      <c r="D89">
+        <v>8015</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89">
+        <v>35.258557099999997</v>
+      </c>
+      <c r="G89">
+        <v>129.0151224</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>4</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>2</v>
+      </c>
+      <c r="M89">
+        <v>14</v>
+      </c>
+      <c r="N89" t="s">
+        <v>46</v>
+      </c>
+      <c r="O89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>26</v>
+      </c>
+      <c r="C90">
+        <v>21080541009</v>
+      </c>
+      <c r="D90">
+        <v>8012</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90">
+        <v>35.260474899999998</v>
+      </c>
+      <c r="G90">
+        <v>129.0164753</v>
+      </c>
+      <c r="H90">
+        <v>2</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>2</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>2</v>
+      </c>
+      <c r="M90">
+        <v>18</v>
+      </c>
+      <c r="N90" t="s">
+        <v>46</v>
+      </c>
+      <c r="O90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91">
+        <v>21080541011</v>
+      </c>
+      <c r="D91">
+        <v>8002</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91">
+        <v>35.267025240000002</v>
+      </c>
+      <c r="G91">
+        <v>129.0196177</v>
+      </c>
+      <c r="H91">
+        <v>3</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>3</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>2</v>
+      </c>
+      <c r="M91">
+        <v>26</v>
+      </c>
+      <c r="N91" t="s">
+        <v>46</v>
+      </c>
+      <c r="O91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92">
+        <v>21080541001</v>
+      </c>
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92">
+        <v>35.267668530000002</v>
+      </c>
+      <c r="G92">
+        <v>129.01797869999999</v>
+      </c>
+      <c r="H92">
+        <v>6</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>6</v>
+      </c>
+      <c r="K92">
+        <v>4</v>
+      </c>
+      <c r="L92">
+        <v>2</v>
+      </c>
+      <c r="M92">
+        <v>58</v>
+      </c>
+      <c r="N92" t="s">
+        <v>46</v>
+      </c>
+      <c r="O92">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Bus_route/res/2번노선(최종).xlsx
+++ b/Bus_route/res/2번노선(최종).xlsx
@@ -305,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -314,6 +314,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O79" sqref="O79"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1282,50 +1285,50 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="1">
+    <row r="15" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>21150561008</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>15038</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>35.17835951</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>128.98832200000001</v>
       </c>
-      <c r="H15" s="3">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="H15" s="2">
+        <v>4</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
         <v>1</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="2">
         <v>21</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="2">
         <v>14</v>
       </c>
     </row>
